--- a/CX034 - IPC - Part X Access Requests Completed - Diane_SJ200925.xlsx
+++ b/CX034 - IPC - Part X Access Requests Completed - Diane_SJ200925.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\college_work\Coop_1\ops_work\cx034\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ED9E48-EDFE-4C7A-AECA-913976859850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939DF160-B344-4024-91E4-A6D6CBE38724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,55 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sukhpreet</author>
+  </authors>
+  <commentList>
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{775BC90F-F63B-43F3-BA32-F4D9D74C0733}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sukhpreet:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+=SUMIFS('Standard Report'!Z:Z, 'Standard Report'!AK:AK, "Partial Access", 'Standard Report'!AL:AL, "*cannot reasonably be severed*") = 114</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{CBC41B2F-CA7B-4DAD-AB00-BA3F4DAEFEA1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sukhpreet:
+=COUNTIFS(AK:AK, "Partial Access", AL:AL, "*cannot reasonably be severed*") = 75</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5823,7 +5872,7 @@
     <numFmt numFmtId="165" formatCode="#0"/>
     <numFmt numFmtId="166" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -5889,8 +5938,21 @@
       <name val="Andale WT"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5900,6 +5962,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDFDFDF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -6013,7 +6087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6085,22 +6159,10 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -6108,16 +6170,37 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6505,10 +6588,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AL386"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AL399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AK34" sqref="AK34"/>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AL257" sqref="A1:AL399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
@@ -6549,46 +6633,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
     </row>
     <row r="2" spans="1:38" ht="12.75" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -6706,7 +6790,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="12.75" customHeight="1">
+    <row r="3" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>50</v>
       </c>
@@ -6792,7 +6876,7 @@
       <c r="AK3" s="8"/>
       <c r="AL3" s="8"/>
     </row>
-    <row r="4" spans="1:38" ht="12.75" customHeight="1">
+    <row r="4" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>65</v>
       </c>
@@ -6894,7 +6978,7 @@
       </c>
       <c r="AL4" s="8"/>
     </row>
-    <row r="5" spans="1:38" ht="12.75" customHeight="1">
+    <row r="5" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>65</v>
       </c>
@@ -6996,7 +7080,7 @@
       </c>
       <c r="AL5" s="8"/>
     </row>
-    <row r="6" spans="1:38" ht="12.75" customHeight="1">
+    <row r="6" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>65</v>
       </c>
@@ -7082,7 +7166,7 @@
       <c r="AK6" s="8"/>
       <c r="AL6" s="8"/>
     </row>
-    <row r="7" spans="1:38" ht="12.75" customHeight="1">
+    <row r="7" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>65</v>
       </c>
@@ -7184,7 +7268,7 @@
       </c>
       <c r="AL7" s="8"/>
     </row>
-    <row r="8" spans="1:38" ht="12.75" customHeight="1">
+    <row r="8" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>65</v>
       </c>
@@ -7286,7 +7370,7 @@
       </c>
       <c r="AL8" s="8"/>
     </row>
-    <row r="9" spans="1:38" ht="12.75" customHeight="1">
+    <row r="9" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>65</v>
       </c>
@@ -7388,7 +7472,7 @@
       </c>
       <c r="AL9" s="8"/>
     </row>
-    <row r="10" spans="1:38" ht="12.75" customHeight="1">
+    <row r="10" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>65</v>
       </c>
@@ -7492,7 +7576,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="12.75" customHeight="1">
+    <row r="11" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>65</v>
       </c>
@@ -7596,7 +7680,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="12.75" customHeight="1">
+    <row r="12" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>65</v>
       </c>
@@ -7698,7 +7782,7 @@
       </c>
       <c r="AL12" s="8"/>
     </row>
-    <row r="13" spans="1:38" ht="12.75" customHeight="1">
+    <row r="13" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>65</v>
       </c>
@@ -7800,7 +7884,7 @@
       </c>
       <c r="AL13" s="8"/>
     </row>
-    <row r="14" spans="1:38" ht="12.75" customHeight="1">
+    <row r="14" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>65</v>
       </c>
@@ -7886,7 +7970,7 @@
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
     </row>
-    <row r="15" spans="1:38" ht="12.75" customHeight="1">
+    <row r="15" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>65</v>
       </c>
@@ -7988,7 +8072,7 @@
       </c>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:38" ht="12.75" customHeight="1">
+    <row r="16" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>65</v>
       </c>
@@ -8090,7 +8174,7 @@
       </c>
       <c r="AL16" s="8"/>
     </row>
-    <row r="17" spans="1:38" ht="12.75" customHeight="1">
+    <row r="17" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>65</v>
       </c>
@@ -8194,7 +8278,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="12.75" customHeight="1">
+    <row r="18" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>65</v>
       </c>
@@ -8296,7 +8380,7 @@
       </c>
       <c r="AL18" s="8"/>
     </row>
-    <row r="19" spans="1:38" ht="12.75" customHeight="1">
+    <row r="19" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>65</v>
       </c>
@@ -8398,7 +8482,7 @@
       </c>
       <c r="AL19" s="8"/>
     </row>
-    <row r="20" spans="1:38" ht="12.75" customHeight="1">
+    <row r="20" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>65</v>
       </c>
@@ -8500,7 +8584,7 @@
       </c>
       <c r="AL20" s="8"/>
     </row>
-    <row r="21" spans="1:38" ht="12.75" customHeight="1">
+    <row r="21" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>65</v>
       </c>
@@ -8596,7 +8680,7 @@
       </c>
       <c r="AL21" s="8"/>
     </row>
-    <row r="22" spans="1:38" ht="12.75" customHeight="1">
+    <row r="22" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>65</v>
       </c>
@@ -8698,7 +8782,7 @@
       </c>
       <c r="AL22" s="8"/>
     </row>
-    <row r="23" spans="1:38" ht="12.75" customHeight="1">
+    <row r="23" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>65</v>
       </c>
@@ -8800,7 +8884,7 @@
       </c>
       <c r="AL23" s="8"/>
     </row>
-    <row r="24" spans="1:38" ht="12.75" customHeight="1">
+    <row r="24" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A24" s="9" t="s">
         <v>65</v>
       </c>
@@ -8904,7 +8988,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="12.75" customHeight="1">
+    <row r="25" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>65</v>
       </c>
@@ -9006,7 +9090,7 @@
       </c>
       <c r="AL25" s="8"/>
     </row>
-    <row r="26" spans="1:38" ht="12.75" customHeight="1">
+    <row r="26" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>65</v>
       </c>
@@ -9108,7 +9192,7 @@
       </c>
       <c r="AL26" s="8"/>
     </row>
-    <row r="27" spans="1:38" ht="12.75" customHeight="1">
+    <row r="27" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>65</v>
       </c>
@@ -9210,7 +9294,7 @@
       </c>
       <c r="AL27" s="8"/>
     </row>
-    <row r="28" spans="1:38" ht="12.75" customHeight="1">
+    <row r="28" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>65</v>
       </c>
@@ -9312,7 +9396,7 @@
       </c>
       <c r="AL28" s="8"/>
     </row>
-    <row r="29" spans="1:38" ht="12.75" customHeight="1">
+    <row r="29" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>65</v>
       </c>
@@ -9414,7 +9498,7 @@
       </c>
       <c r="AL29" s="8"/>
     </row>
-    <row r="30" spans="1:38" ht="12.75" customHeight="1">
+    <row r="30" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>65</v>
       </c>
@@ -9516,7 +9600,7 @@
       </c>
       <c r="AL30" s="8"/>
     </row>
-    <row r="31" spans="1:38" ht="12.75" customHeight="1">
+    <row r="31" spans="1:38" ht="12.75" hidden="1" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>65</v>
       </c>
@@ -9620,93 +9704,93 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="13.2">
-      <c r="A32" s="28" t="s">
+    <row r="32" spans="1:38" ht="13.2" hidden="1">
+      <c r="A32" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="28" t="s">
+      <c r="B32" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="H32" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="J32" s="28" t="s">
+      <c r="H32" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="K32" s="28" t="s">
+      <c r="K32" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="L32" s="30" t="s">
+      <c r="L32" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="M32" s="30" t="s">
+      <c r="M32" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="N32" s="31">
+      <c r="N32" s="27">
         <v>45377</v>
       </c>
-      <c r="O32" s="32">
+      <c r="O32" s="34">
         <v>1</v>
       </c>
-      <c r="P32" s="28" t="s">
+      <c r="P32" s="31" t="s">
         <v>60</v>
       </c>
       <c r="Q32" s="15"/>
-      <c r="R32" s="28" t="s">
+      <c r="R32" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="S32" s="28" t="s">
+      <c r="S32" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="T32" s="30" t="s">
+      <c r="T32" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="U32" s="30" t="s">
+      <c r="U32" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="V32" s="31">
+      <c r="V32" s="27">
         <v>45716</v>
       </c>
-      <c r="W32" s="31">
+      <c r="W32" s="27">
         <v>45716</v>
       </c>
-      <c r="X32" s="30" t="s">
+      <c r="X32" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="Y32" s="31">
+      <c r="Y32" s="27">
         <v>45716</v>
       </c>
-      <c r="Z32" s="33">
+      <c r="Z32" s="29">
         <v>1</v>
       </c>
-      <c r="AA32" s="34">
+      <c r="AA32" s="30">
         <v>45746</v>
       </c>
-      <c r="AB32" s="28" t="s">
+      <c r="AB32" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="AC32" s="31">
+      <c r="AC32" s="27">
         <v>45408</v>
       </c>
-      <c r="AD32" s="31">
+      <c r="AD32" s="27">
         <v>45789</v>
       </c>
       <c r="AE32" s="15"/>
@@ -9714,57 +9798,57 @@
       <c r="AG32" s="15"/>
       <c r="AH32" s="15"/>
       <c r="AI32" s="15"/>
-      <c r="AJ32" s="34">
+      <c r="AJ32" s="30">
         <v>45789</v>
       </c>
-      <c r="AK32" s="28" t="s">
+      <c r="AK32" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="AL32" s="35" t="s">
+      <c r="AL32" s="32" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="13.2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
+    <row r="33" spans="1:38" ht="13.2" hidden="1">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
       <c r="Q33" s="8"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="29"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
       <c r="AE33" s="8"/>
       <c r="AF33" s="8"/>
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="8"/>
-      <c r="AJ33" s="29"/>
-      <c r="AK33" s="29"/>
-      <c r="AL33" s="29"/>
+      <c r="AJ33" s="28"/>
+      <c r="AK33" s="28"/>
+      <c r="AL33" s="28"/>
     </row>
-    <row r="34" spans="1:38" ht="13.2">
+    <row r="34" spans="1:38" ht="13.2" hidden="1">
       <c r="A34" s="9" t="s">
         <v>65</v>
       </c>
@@ -9866,93 +9950,93 @@
       </c>
       <c r="AL34" s="8"/>
     </row>
-    <row r="35" spans="1:38" ht="13.2">
-      <c r="A35" s="28" t="s">
+    <row r="35" spans="1:38" ht="13.2" hidden="1">
+      <c r="A35" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="28" t="s">
+      <c r="B35" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="G35" s="28" t="s">
+      <c r="G35" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="H35" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I35" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" s="28" t="s">
+      <c r="H35" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="K35" s="28" t="s">
+      <c r="K35" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="L35" s="30" t="s">
+      <c r="L35" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="M35" s="30" t="s">
+      <c r="M35" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="N35" s="31">
+      <c r="N35" s="27">
         <v>45547</v>
       </c>
-      <c r="O35" s="32">
+      <c r="O35" s="34">
         <v>1</v>
       </c>
-      <c r="P35" s="28" t="s">
+      <c r="P35" s="31" t="s">
         <v>60</v>
       </c>
       <c r="Q35" s="15"/>
-      <c r="R35" s="28" t="s">
+      <c r="R35" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="S35" s="28" t="s">
+      <c r="S35" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="T35" s="30" t="s">
+      <c r="T35" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="U35" s="30" t="s">
+      <c r="U35" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="V35" s="31">
+      <c r="V35" s="27">
         <v>45573</v>
       </c>
-      <c r="W35" s="31">
+      <c r="W35" s="27">
         <v>45573</v>
       </c>
-      <c r="X35" s="30" t="s">
+      <c r="X35" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="Y35" s="31">
+      <c r="Y35" s="27">
         <v>45573</v>
       </c>
-      <c r="Z35" s="33">
+      <c r="Z35" s="29">
         <v>1</v>
       </c>
-      <c r="AA35" s="34">
+      <c r="AA35" s="30">
         <v>45603</v>
       </c>
-      <c r="AB35" s="28" t="s">
+      <c r="AB35" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="AC35" s="31">
+      <c r="AC35" s="27">
         <v>45577</v>
       </c>
-      <c r="AD35" s="31">
+      <c r="AD35" s="27">
         <v>45575</v>
       </c>
       <c r="AE35" s="15"/>
@@ -9960,57 +10044,57 @@
       <c r="AG35" s="15"/>
       <c r="AH35" s="15"/>
       <c r="AI35" s="15"/>
-      <c r="AJ35" s="34">
+      <c r="AJ35" s="30">
         <v>45575</v>
       </c>
-      <c r="AK35" s="28" t="s">
+      <c r="AK35" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="AL35" s="35" t="s">
+      <c r="AL35" s="32" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="13.2">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
+    <row r="36" spans="1:38" ht="13.2" hidden="1">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
       <c r="Q36" s="8"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="29"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="29"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
       <c r="AE36" s="8"/>
       <c r="AF36" s="8"/>
       <c r="AG36" s="8"/>
       <c r="AH36" s="8"/>
       <c r="AI36" s="8"/>
-      <c r="AJ36" s="29"/>
-      <c r="AK36" s="29"/>
-      <c r="AL36" s="29"/>
+      <c r="AJ36" s="28"/>
+      <c r="AK36" s="28"/>
+      <c r="AL36" s="28"/>
     </row>
-    <row r="37" spans="1:38" ht="13.2">
+    <row r="37" spans="1:38" ht="13.2" hidden="1">
       <c r="A37" s="9" t="s">
         <v>65</v>
       </c>
@@ -10114,7 +10198,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="13.2">
+    <row r="38" spans="1:38" ht="13.2" hidden="1">
       <c r="A38" s="9" t="s">
         <v>65</v>
       </c>
@@ -10216,7 +10300,7 @@
       </c>
       <c r="AL38" s="8"/>
     </row>
-    <row r="39" spans="1:38" ht="13.2">
+    <row r="39" spans="1:38" ht="13.2" hidden="1">
       <c r="A39" s="9" t="s">
         <v>65</v>
       </c>
@@ -10320,7 +10404,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="13.2">
+    <row r="40" spans="1:38" ht="13.2" hidden="1">
       <c r="A40" s="9" t="s">
         <v>65</v>
       </c>
@@ -10422,7 +10506,7 @@
       </c>
       <c r="AL40" s="8"/>
     </row>
-    <row r="41" spans="1:38" ht="13.2">
+    <row r="41" spans="1:38" ht="13.2" hidden="1">
       <c r="A41" s="9" t="s">
         <v>65</v>
       </c>
@@ -10524,7 +10608,7 @@
       </c>
       <c r="AL41" s="8"/>
     </row>
-    <row r="42" spans="1:38" ht="13.2">
+    <row r="42" spans="1:38" ht="13.2" hidden="1">
       <c r="A42" s="9" t="s">
         <v>65</v>
       </c>
@@ -10626,7 +10710,7 @@
       </c>
       <c r="AL42" s="8"/>
     </row>
-    <row r="43" spans="1:38" ht="13.2">
+    <row r="43" spans="1:38" ht="13.2" hidden="1">
       <c r="A43" s="9" t="s">
         <v>65</v>
       </c>
@@ -10728,7 +10812,7 @@
       </c>
       <c r="AL43" s="8"/>
     </row>
-    <row r="44" spans="1:38" ht="13.2">
+    <row r="44" spans="1:38" ht="13.2" hidden="1">
       <c r="A44" s="9" t="s">
         <v>65</v>
       </c>
@@ -10830,7 +10914,7 @@
       </c>
       <c r="AL44" s="8"/>
     </row>
-    <row r="45" spans="1:38" ht="13.2">
+    <row r="45" spans="1:38" ht="13.2" hidden="1">
       <c r="A45" s="9" t="s">
         <v>65</v>
       </c>
@@ -10932,7 +11016,7 @@
       </c>
       <c r="AL45" s="8"/>
     </row>
-    <row r="46" spans="1:38" ht="13.2">
+    <row r="46" spans="1:38" ht="13.2" hidden="1">
       <c r="A46" s="9" t="s">
         <v>65</v>
       </c>
@@ -11034,7 +11118,7 @@
       </c>
       <c r="AL46" s="8"/>
     </row>
-    <row r="47" spans="1:38" ht="13.2">
+    <row r="47" spans="1:38" ht="13.2" hidden="1">
       <c r="A47" s="9" t="s">
         <v>65</v>
       </c>
@@ -11136,7 +11220,7 @@
       </c>
       <c r="AL47" s="8"/>
     </row>
-    <row r="48" spans="1:38" ht="13.2">
+    <row r="48" spans="1:38" ht="13.2" hidden="1">
       <c r="A48" s="9" t="s">
         <v>65</v>
       </c>
@@ -11238,93 +11322,93 @@
       </c>
       <c r="AL48" s="8"/>
     </row>
-    <row r="49" spans="1:38" ht="13.2">
-      <c r="A49" s="28" t="s">
+    <row r="49" spans="1:38" ht="13.2" hidden="1">
+      <c r="A49" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F49" s="28" t="s">
+      <c r="B49" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="G49" s="28" t="s">
+      <c r="G49" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="H49" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I49" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="J49" s="28" t="s">
+      <c r="H49" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I49" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J49" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="K49" s="28" t="s">
+      <c r="K49" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="L49" s="30" t="s">
+      <c r="L49" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="M49" s="30" t="s">
+      <c r="M49" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="N49" s="31">
+      <c r="N49" s="27">
         <v>45713</v>
       </c>
-      <c r="O49" s="32">
+      <c r="O49" s="34">
         <v>1</v>
       </c>
-      <c r="P49" s="28" t="s">
+      <c r="P49" s="31" t="s">
         <v>60</v>
       </c>
       <c r="Q49" s="15"/>
-      <c r="R49" s="28" t="s">
+      <c r="R49" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="S49" s="28" t="s">
+      <c r="S49" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="T49" s="30" t="s">
+      <c r="T49" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="U49" s="30" t="s">
+      <c r="U49" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="V49" s="31">
+      <c r="V49" s="27">
         <v>45721</v>
       </c>
-      <c r="W49" s="31">
+      <c r="W49" s="27">
         <v>45721</v>
       </c>
-      <c r="X49" s="30" t="s">
+      <c r="X49" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="Y49" s="31">
+      <c r="Y49" s="27">
         <v>45721</v>
       </c>
-      <c r="Z49" s="33">
+      <c r="Z49" s="29">
         <v>1</v>
       </c>
-      <c r="AA49" s="34">
+      <c r="AA49" s="30">
         <v>45751</v>
       </c>
-      <c r="AB49" s="28" t="s">
+      <c r="AB49" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="AC49" s="31">
+      <c r="AC49" s="27">
         <v>45715</v>
       </c>
-      <c r="AD49" s="31">
+      <c r="AD49" s="27">
         <v>45800</v>
       </c>
       <c r="AE49" s="15"/>
@@ -11332,57 +11416,57 @@
       <c r="AG49" s="15"/>
       <c r="AH49" s="15"/>
       <c r="AI49" s="15"/>
-      <c r="AJ49" s="34">
+      <c r="AJ49" s="30">
         <v>45800</v>
       </c>
-      <c r="AK49" s="28" t="s">
+      <c r="AK49" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="AL49" s="35" t="s">
+      <c r="AL49" s="32" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="13.2">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
+    <row r="50" spans="1:38" ht="13.2" hidden="1">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
       <c r="Q50" s="8"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="29"/>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
+      <c r="AC50" s="28"/>
+      <c r="AD50" s="28"/>
       <c r="AE50" s="8"/>
       <c r="AF50" s="8"/>
       <c r="AG50" s="8"/>
       <c r="AH50" s="8"/>
       <c r="AI50" s="8"/>
-      <c r="AJ50" s="29"/>
-      <c r="AK50" s="29"/>
-      <c r="AL50" s="29"/>
+      <c r="AJ50" s="28"/>
+      <c r="AK50" s="28"/>
+      <c r="AL50" s="28"/>
     </row>
-    <row r="51" spans="1:38" ht="13.2">
+    <row r="51" spans="1:38" ht="13.2" hidden="1">
       <c r="A51" s="9" t="s">
         <v>65</v>
       </c>
@@ -11484,7 +11568,7 @@
       </c>
       <c r="AL51" s="8"/>
     </row>
-    <row r="52" spans="1:38" ht="13.2">
+    <row r="52" spans="1:38" ht="13.2" hidden="1">
       <c r="A52" s="9" t="s">
         <v>65</v>
       </c>
@@ -11586,7 +11670,7 @@
       </c>
       <c r="AL52" s="8"/>
     </row>
-    <row r="53" spans="1:38" ht="13.2">
+    <row r="53" spans="1:38" ht="13.2" hidden="1">
       <c r="A53" s="9" t="s">
         <v>65</v>
       </c>
@@ -11792,7 +11876,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="13.2">
+    <row r="55" spans="1:38" ht="13.2" hidden="1">
       <c r="A55" s="9" t="s">
         <v>65</v>
       </c>
@@ -11894,7 +11978,7 @@
       </c>
       <c r="AL55" s="8"/>
     </row>
-    <row r="56" spans="1:38" ht="13.2">
+    <row r="56" spans="1:38" ht="13.2" hidden="1">
       <c r="A56" s="9" t="s">
         <v>65</v>
       </c>
@@ -11996,7 +12080,7 @@
       </c>
       <c r="AL56" s="8"/>
     </row>
-    <row r="57" spans="1:38" ht="13.2">
+    <row r="57" spans="1:38" ht="13.2" hidden="1">
       <c r="A57" s="9" t="s">
         <v>65</v>
       </c>
@@ -12098,7 +12182,7 @@
       </c>
       <c r="AL57" s="8"/>
     </row>
-    <row r="58" spans="1:38" ht="13.2">
+    <row r="58" spans="1:38" ht="13.2" hidden="1">
       <c r="A58" s="9" t="s">
         <v>65</v>
       </c>
@@ -12202,7 +12286,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="13.2">
+    <row r="59" spans="1:38" ht="13.2" hidden="1">
       <c r="A59" s="9" t="s">
         <v>65</v>
       </c>
@@ -12304,7 +12388,7 @@
       </c>
       <c r="AL59" s="8"/>
     </row>
-    <row r="60" spans="1:38" ht="13.2">
+    <row r="60" spans="1:38" ht="13.2" hidden="1">
       <c r="A60" s="9" t="s">
         <v>65</v>
       </c>
@@ -12408,7 +12492,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="61" spans="1:38" ht="13.2">
+    <row r="61" spans="1:38" ht="13.2" hidden="1">
       <c r="A61" s="9" t="s">
         <v>65</v>
       </c>
@@ -12616,7 +12700,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:38" ht="13.2">
+    <row r="63" spans="1:38" ht="13.2" hidden="1">
       <c r="A63" s="9" t="s">
         <v>65</v>
       </c>
@@ -12720,7 +12804,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="13.2">
+    <row r="64" spans="1:38" ht="13.2" hidden="1">
       <c r="A64" s="9" t="s">
         <v>65</v>
       </c>
@@ -12822,7 +12906,7 @@
       </c>
       <c r="AL64" s="8"/>
     </row>
-    <row r="65" spans="1:38" ht="13.2">
+    <row r="65" spans="1:38" ht="13.2" hidden="1">
       <c r="A65" s="9" t="s">
         <v>65</v>
       </c>
@@ -12924,7 +13008,7 @@
       </c>
       <c r="AL65" s="8"/>
     </row>
-    <row r="66" spans="1:38" ht="13.2">
+    <row r="66" spans="1:38" ht="13.2" hidden="1">
       <c r="A66" s="9" t="s">
         <v>65</v>
       </c>
@@ -13132,7 +13216,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:38" ht="13.2">
+    <row r="68" spans="1:38" ht="13.2" hidden="1">
       <c r="A68" s="9" t="s">
         <v>65</v>
       </c>
@@ -13236,7 +13320,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:38" ht="13.2">
+    <row r="69" spans="1:38" ht="13.2" hidden="1">
       <c r="A69" s="9" t="s">
         <v>65</v>
       </c>
@@ -13340,7 +13424,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="70" spans="1:38" ht="13.2">
+    <row r="70" spans="1:38" ht="13.2" hidden="1">
       <c r="A70" s="9" t="s">
         <v>65</v>
       </c>
@@ -13444,7 +13528,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="13.2">
+    <row r="71" spans="1:38" ht="13.2" hidden="1">
       <c r="A71" s="9" t="s">
         <v>65</v>
       </c>
@@ -13546,7 +13630,7 @@
       </c>
       <c r="AL71" s="8"/>
     </row>
-    <row r="72" spans="1:38" ht="13.2">
+    <row r="72" spans="1:38" ht="13.2" hidden="1">
       <c r="A72" s="9" t="s">
         <v>65</v>
       </c>
@@ -13648,7 +13732,7 @@
       </c>
       <c r="AL72" s="8"/>
     </row>
-    <row r="73" spans="1:38" ht="13.2">
+    <row r="73" spans="1:38" ht="13.2" hidden="1">
       <c r="A73" s="9" t="s">
         <v>65</v>
       </c>
@@ -13752,7 +13836,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="1:38" ht="13.2">
+    <row r="74" spans="1:38" ht="13.2" hidden="1">
       <c r="A74" s="9" t="s">
         <v>65</v>
       </c>
@@ -13856,7 +13940,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:38" ht="13.2">
+    <row r="75" spans="1:38" ht="13.2" hidden="1">
       <c r="A75" s="9" t="s">
         <v>65</v>
       </c>
@@ -14062,7 +14146,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="77" spans="1:38" ht="13.2">
+    <row r="77" spans="1:38" ht="13.2" hidden="1">
       <c r="A77" s="9" t="s">
         <v>65</v>
       </c>
@@ -14164,7 +14248,7 @@
       </c>
       <c r="AL77" s="8"/>
     </row>
-    <row r="78" spans="1:38" ht="13.2">
+    <row r="78" spans="1:38" ht="13.2" hidden="1">
       <c r="A78" s="9" t="s">
         <v>65</v>
       </c>
@@ -14268,7 +14352,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="13.2">
+    <row r="79" spans="1:38" ht="13.2" hidden="1">
       <c r="A79" s="9" t="s">
         <v>65</v>
       </c>
@@ -14370,7 +14454,7 @@
       </c>
       <c r="AL79" s="8"/>
     </row>
-    <row r="80" spans="1:38" ht="13.2">
+    <row r="80" spans="1:38" ht="13.2" hidden="1">
       <c r="A80" s="9" t="s">
         <v>65</v>
       </c>
@@ -14472,7 +14556,7 @@
       </c>
       <c r="AL80" s="8"/>
     </row>
-    <row r="81" spans="1:38" ht="13.2">
+    <row r="81" spans="1:38" ht="13.2" hidden="1">
       <c r="A81" s="9" t="s">
         <v>65</v>
       </c>
@@ -14574,7 +14658,7 @@
       </c>
       <c r="AL81" s="8"/>
     </row>
-    <row r="82" spans="1:38" ht="13.2">
+    <row r="82" spans="1:38" ht="13.2" hidden="1">
       <c r="A82" s="9" t="s">
         <v>65</v>
       </c>
@@ -14676,7 +14760,7 @@
       </c>
       <c r="AL82" s="8"/>
     </row>
-    <row r="83" spans="1:38" ht="13.2">
+    <row r="83" spans="1:38" ht="13.2" hidden="1">
       <c r="A83" s="9" t="s">
         <v>65</v>
       </c>
@@ -14778,7 +14862,7 @@
       </c>
       <c r="AL83" s="8"/>
     </row>
-    <row r="84" spans="1:38" ht="13.2">
+    <row r="84" spans="1:38" ht="13.2" hidden="1">
       <c r="A84" s="9" t="s">
         <v>65</v>
       </c>
@@ -14880,93 +14964,93 @@
       </c>
       <c r="AL84" s="8"/>
     </row>
-    <row r="85" spans="1:38" ht="13.2">
-      <c r="A85" s="28" t="s">
+    <row r="85" spans="1:38" ht="13.2" hidden="1">
+      <c r="A85" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B85" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C85" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D85" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E85" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F85" s="28" t="s">
+      <c r="B85" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F85" s="31" t="s">
         <v>480</v>
       </c>
-      <c r="G85" s="28" t="s">
+      <c r="G85" s="31" t="s">
         <v>481</v>
       </c>
-      <c r="H85" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I85" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="J85" s="28" t="s">
+      <c r="H85" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I85" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J85" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="K85" s="28" t="s">
+      <c r="K85" s="31" t="s">
         <v>482</v>
       </c>
-      <c r="L85" s="30" t="s">
+      <c r="L85" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="M85" s="30" t="s">
+      <c r="M85" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="N85" s="31">
+      <c r="N85" s="27">
         <v>45471</v>
       </c>
-      <c r="O85" s="32">
+      <c r="O85" s="34">
         <v>1</v>
       </c>
-      <c r="P85" s="28" t="s">
+      <c r="P85" s="31" t="s">
         <v>60</v>
       </c>
       <c r="Q85" s="15"/>
-      <c r="R85" s="28" t="s">
+      <c r="R85" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="S85" s="28" t="s">
+      <c r="S85" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="T85" s="30" t="s">
+      <c r="T85" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="U85" s="30" t="s">
+      <c r="U85" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="V85" s="31">
+      <c r="V85" s="27">
         <v>45727</v>
       </c>
-      <c r="W85" s="31">
+      <c r="W85" s="27">
         <v>45727</v>
       </c>
-      <c r="X85" s="30" t="s">
+      <c r="X85" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="Y85" s="31">
+      <c r="Y85" s="27">
         <v>45727</v>
       </c>
-      <c r="Z85" s="33">
+      <c r="Z85" s="29">
         <v>1</v>
       </c>
-      <c r="AA85" s="34">
+      <c r="AA85" s="30">
         <v>45757</v>
       </c>
-      <c r="AB85" s="28" t="s">
+      <c r="AB85" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="AC85" s="31">
+      <c r="AC85" s="27">
         <v>45501</v>
       </c>
-      <c r="AD85" s="31">
+      <c r="AD85" s="27">
         <v>45743</v>
       </c>
       <c r="AE85" s="15"/>
@@ -14974,55 +15058,55 @@
       <c r="AG85" s="15"/>
       <c r="AH85" s="15"/>
       <c r="AI85" s="15"/>
-      <c r="AJ85" s="34">
+      <c r="AJ85" s="30">
         <v>45743</v>
       </c>
-      <c r="AK85" s="28" t="s">
+      <c r="AK85" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="AL85" s="35" t="s">
+      <c r="AL85" s="32" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="13.2">
-      <c r="A86" s="29"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="29"/>
-      <c r="L86" s="29"/>
-      <c r="M86" s="29"/>
-      <c r="N86" s="29"/>
-      <c r="O86" s="29"/>
-      <c r="P86" s="29"/>
+    <row r="86" spans="1:38" ht="13.2" hidden="1">
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="28"/>
+      <c r="P86" s="28"/>
       <c r="Q86" s="8"/>
-      <c r="R86" s="29"/>
-      <c r="S86" s="29"/>
-      <c r="T86" s="29"/>
-      <c r="U86" s="29"/>
-      <c r="V86" s="29"/>
-      <c r="W86" s="29"/>
-      <c r="X86" s="29"/>
-      <c r="Y86" s="29"/>
-      <c r="Z86" s="29"/>
-      <c r="AA86" s="29"/>
-      <c r="AB86" s="29"/>
-      <c r="AC86" s="29"/>
-      <c r="AD86" s="29"/>
+      <c r="R86" s="28"/>
+      <c r="S86" s="28"/>
+      <c r="T86" s="28"/>
+      <c r="U86" s="28"/>
+      <c r="V86" s="28"/>
+      <c r="W86" s="28"/>
+      <c r="X86" s="28"/>
+      <c r="Y86" s="28"/>
+      <c r="Z86" s="28"/>
+      <c r="AA86" s="28"/>
+      <c r="AB86" s="28"/>
+      <c r="AC86" s="28"/>
+      <c r="AD86" s="28"/>
       <c r="AE86" s="8"/>
       <c r="AF86" s="8"/>
       <c r="AG86" s="8"/>
       <c r="AH86" s="8"/>
       <c r="AI86" s="8"/>
-      <c r="AJ86" s="29"/>
-      <c r="AK86" s="29"/>
-      <c r="AL86" s="29"/>
+      <c r="AJ86" s="28"/>
+      <c r="AK86" s="28"/>
+      <c r="AL86" s="28"/>
     </row>
     <row r="87" spans="1:38" ht="13.2">
       <c r="A87" s="9" t="s">
@@ -15128,7 +15212,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="88" spans="1:38" ht="13.2">
+    <row r="88" spans="1:38" ht="13.2" hidden="1">
       <c r="A88" s="9" t="s">
         <v>65</v>
       </c>
@@ -15230,7 +15314,7 @@
       </c>
       <c r="AL88" s="8"/>
     </row>
-    <row r="89" spans="1:38" ht="13.2">
+    <row r="89" spans="1:38" ht="13.2" hidden="1">
       <c r="A89" s="9" t="s">
         <v>65</v>
       </c>
@@ -15332,7 +15416,7 @@
       </c>
       <c r="AL89" s="8"/>
     </row>
-    <row r="90" spans="1:38" ht="13.2">
+    <row r="90" spans="1:38" ht="13.2" hidden="1">
       <c r="A90" s="9" t="s">
         <v>65</v>
       </c>
@@ -15437,92 +15521,92 @@
       </c>
     </row>
     <row r="91" spans="1:38" ht="13.2">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B91" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D91" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E91" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F91" s="28" t="s">
+      <c r="B91" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F91" s="31" t="s">
         <v>480</v>
       </c>
-      <c r="G91" s="28" t="s">
+      <c r="G91" s="31" t="s">
         <v>481</v>
       </c>
-      <c r="H91" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I91" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="J91" s="28" t="s">
+      <c r="H91" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I91" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J91" s="31" t="s">
         <v>508</v>
       </c>
-      <c r="K91" s="28" t="s">
+      <c r="K91" s="31" t="s">
         <v>509</v>
       </c>
-      <c r="L91" s="30" t="s">
+      <c r="L91" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="M91" s="30" t="s">
+      <c r="M91" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="N91" s="31">
+      <c r="N91" s="27">
         <v>45488</v>
       </c>
-      <c r="O91" s="32">
+      <c r="O91" s="34">
         <v>1</v>
       </c>
-      <c r="P91" s="28" t="s">
+      <c r="P91" s="31" t="s">
         <v>60</v>
       </c>
       <c r="Q91" s="15"/>
-      <c r="R91" s="28" t="s">
+      <c r="R91" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="S91" s="28" t="s">
+      <c r="S91" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="T91" s="30" t="s">
+      <c r="T91" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="U91" s="30" t="s">
+      <c r="U91" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="V91" s="31">
+      <c r="V91" s="27">
         <v>45558</v>
       </c>
-      <c r="W91" s="31">
+      <c r="W91" s="27">
         <v>45558</v>
       </c>
-      <c r="X91" s="30" t="s">
+      <c r="X91" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="Y91" s="31">
+      <c r="Y91" s="27">
         <v>45558</v>
       </c>
-      <c r="Z91" s="33">
+      <c r="Z91" s="29">
         <v>1</v>
       </c>
-      <c r="AA91" s="34">
+      <c r="AA91" s="30">
         <v>45588</v>
       </c>
-      <c r="AB91" s="28" t="s">
+      <c r="AB91" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="AC91" s="31">
+      <c r="AC91" s="27">
         <v>45588</v>
       </c>
-      <c r="AD91" s="31">
+      <c r="AD91" s="27">
         <v>45595</v>
       </c>
       <c r="AE91" s="15"/>
@@ -15530,55 +15614,55 @@
       <c r="AG91" s="15"/>
       <c r="AH91" s="15"/>
       <c r="AI91" s="15"/>
-      <c r="AJ91" s="34">
+      <c r="AJ91" s="30">
         <v>45595</v>
       </c>
-      <c r="AK91" s="28" t="s">
+      <c r="AK91" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="AL91" s="35" t="s">
+      <c r="AL91" s="32" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="92" spans="1:38" ht="13.2">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="29"/>
-      <c r="L92" s="29"/>
-      <c r="M92" s="29"/>
-      <c r="N92" s="29"/>
-      <c r="O92" s="29"/>
-      <c r="P92" s="29"/>
+    <row r="92" spans="1:38" ht="13.2" hidden="1">
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="28"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="28"/>
+      <c r="O92" s="28"/>
+      <c r="P92" s="28"/>
       <c r="Q92" s="8"/>
-      <c r="R92" s="29"/>
-      <c r="S92" s="29"/>
-      <c r="T92" s="29"/>
-      <c r="U92" s="29"/>
-      <c r="V92" s="29"/>
-      <c r="W92" s="29"/>
-      <c r="X92" s="29"/>
-      <c r="Y92" s="29"/>
-      <c r="Z92" s="29"/>
-      <c r="AA92" s="29"/>
-      <c r="AB92" s="29"/>
-      <c r="AC92" s="29"/>
-      <c r="AD92" s="29"/>
+      <c r="R92" s="28"/>
+      <c r="S92" s="28"/>
+      <c r="T92" s="28"/>
+      <c r="U92" s="28"/>
+      <c r="V92" s="28"/>
+      <c r="W92" s="28"/>
+      <c r="X92" s="28"/>
+      <c r="Y92" s="28"/>
+      <c r="Z92" s="28"/>
+      <c r="AA92" s="28"/>
+      <c r="AB92" s="28"/>
+      <c r="AC92" s="28"/>
+      <c r="AD92" s="28"/>
       <c r="AE92" s="8"/>
       <c r="AF92" s="8"/>
       <c r="AG92" s="8"/>
       <c r="AH92" s="8"/>
       <c r="AI92" s="8"/>
-      <c r="AJ92" s="29"/>
-      <c r="AK92" s="29"/>
-      <c r="AL92" s="29"/>
+      <c r="AJ92" s="28"/>
+      <c r="AK92" s="28"/>
+      <c r="AL92" s="28"/>
     </row>
     <row r="93" spans="1:38" ht="13.2">
       <c r="A93" s="9" t="s">
@@ -15788,7 +15872,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="95" spans="1:38" ht="13.2">
+    <row r="95" spans="1:38" ht="13.2" hidden="1">
       <c r="A95" s="9" t="s">
         <v>65</v>
       </c>
@@ -15890,7 +15974,7 @@
       </c>
       <c r="AL95" s="8"/>
     </row>
-    <row r="96" spans="1:38" ht="13.2">
+    <row r="96" spans="1:38" ht="13.2" hidden="1">
       <c r="A96" s="9" t="s">
         <v>65</v>
       </c>
@@ -15992,7 +16076,7 @@
       </c>
       <c r="AL96" s="8"/>
     </row>
-    <row r="97" spans="1:38" ht="13.2">
+    <row r="97" spans="1:38" ht="13.2" hidden="1">
       <c r="A97" s="9" t="s">
         <v>65</v>
       </c>
@@ -16094,7 +16178,7 @@
       </c>
       <c r="AL97" s="8"/>
     </row>
-    <row r="98" spans="1:38" ht="13.2">
+    <row r="98" spans="1:38" ht="13.2" hidden="1">
       <c r="A98" s="9" t="s">
         <v>65</v>
       </c>
@@ -16196,7 +16280,7 @@
       </c>
       <c r="AL98" s="8"/>
     </row>
-    <row r="99" spans="1:38" ht="13.2">
+    <row r="99" spans="1:38" ht="13.2" hidden="1">
       <c r="A99" s="9" t="s">
         <v>65</v>
       </c>
@@ -16298,7 +16382,7 @@
       </c>
       <c r="AL99" s="8"/>
     </row>
-    <row r="100" spans="1:38" ht="13.2">
+    <row r="100" spans="1:38" ht="13.2" hidden="1">
       <c r="A100" s="9" t="s">
         <v>65</v>
       </c>
@@ -16400,7 +16484,7 @@
       </c>
       <c r="AL100" s="8"/>
     </row>
-    <row r="101" spans="1:38" ht="13.2">
+    <row r="101" spans="1:38" ht="13.2" hidden="1">
       <c r="A101" s="9" t="s">
         <v>65</v>
       </c>
@@ -16502,7 +16586,7 @@
       </c>
       <c r="AL101" s="8"/>
     </row>
-    <row r="102" spans="1:38" ht="13.2">
+    <row r="102" spans="1:38" ht="13.2" hidden="1">
       <c r="A102" s="9" t="s">
         <v>65</v>
       </c>
@@ -16604,7 +16688,7 @@
       </c>
       <c r="AL102" s="8"/>
     </row>
-    <row r="103" spans="1:38" ht="13.2">
+    <row r="103" spans="1:38" ht="13.2" hidden="1">
       <c r="A103" s="9" t="s">
         <v>65</v>
       </c>
@@ -16706,7 +16790,7 @@
       </c>
       <c r="AL103" s="8"/>
     </row>
-    <row r="104" spans="1:38" ht="13.2">
+    <row r="104" spans="1:38" ht="13.2" hidden="1">
       <c r="A104" s="9" t="s">
         <v>65</v>
       </c>
@@ -16808,7 +16892,7 @@
       </c>
       <c r="AL104" s="8"/>
     </row>
-    <row r="105" spans="1:38" ht="13.2">
+    <row r="105" spans="1:38" ht="13.2" hidden="1">
       <c r="A105" s="9" t="s">
         <v>65</v>
       </c>
@@ -16910,7 +16994,7 @@
       </c>
       <c r="AL105" s="8"/>
     </row>
-    <row r="106" spans="1:38" ht="13.2">
+    <row r="106" spans="1:38" ht="13.2" hidden="1">
       <c r="A106" s="9" t="s">
         <v>65</v>
       </c>
@@ -17012,7 +17096,7 @@
       </c>
       <c r="AL106" s="8"/>
     </row>
-    <row r="107" spans="1:38" ht="13.2">
+    <row r="107" spans="1:38" ht="13.2" hidden="1">
       <c r="A107" s="9" t="s">
         <v>65</v>
       </c>
@@ -17114,7 +17198,7 @@
       </c>
       <c r="AL107" s="8"/>
     </row>
-    <row r="108" spans="1:38" ht="13.2">
+    <row r="108" spans="1:38" ht="13.2" hidden="1">
       <c r="A108" s="9" t="s">
         <v>65</v>
       </c>
@@ -17216,7 +17300,7 @@
       </c>
       <c r="AL108" s="8"/>
     </row>
-    <row r="109" spans="1:38" ht="13.2">
+    <row r="109" spans="1:38" ht="13.2" hidden="1">
       <c r="A109" s="9" t="s">
         <v>65</v>
       </c>
@@ -17318,93 +17402,93 @@
       </c>
       <c r="AL109" s="8"/>
     </row>
-    <row r="110" spans="1:38" ht="13.2">
-      <c r="A110" s="28" t="s">
+    <row r="110" spans="1:38" ht="13.2" hidden="1">
+      <c r="A110" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B110" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C110" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D110" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E110" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F110" s="28" t="s">
+      <c r="B110" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E110" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F110" s="31" t="s">
         <v>587</v>
       </c>
-      <c r="G110" s="28" t="s">
+      <c r="G110" s="31" t="s">
         <v>588</v>
       </c>
-      <c r="H110" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I110" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="J110" s="28" t="s">
+      <c r="H110" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I110" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J110" s="31" t="s">
         <v>603</v>
       </c>
-      <c r="K110" s="28" t="s">
+      <c r="K110" s="31" t="s">
         <v>604</v>
       </c>
-      <c r="L110" s="30" t="s">
+      <c r="L110" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="M110" s="30" t="s">
+      <c r="M110" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="N110" s="31">
+      <c r="N110" s="27">
         <v>45671</v>
       </c>
-      <c r="O110" s="32">
+      <c r="O110" s="34">
         <v>1</v>
       </c>
-      <c r="P110" s="28" t="s">
+      <c r="P110" s="31" t="s">
         <v>60</v>
       </c>
       <c r="Q110" s="15"/>
-      <c r="R110" s="28" t="s">
+      <c r="R110" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="S110" s="28" t="s">
+      <c r="S110" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="T110" s="30" t="s">
+      <c r="T110" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="U110" s="30" t="s">
+      <c r="U110" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="V110" s="31">
+      <c r="V110" s="27">
         <v>45685</v>
       </c>
-      <c r="W110" s="31">
+      <c r="W110" s="27">
         <v>45685</v>
       </c>
-      <c r="X110" s="30" t="s">
+      <c r="X110" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="Y110" s="31">
+      <c r="Y110" s="27">
         <v>45685</v>
       </c>
-      <c r="Z110" s="33">
+      <c r="Z110" s="29">
         <v>1</v>
       </c>
-      <c r="AA110" s="34">
+      <c r="AA110" s="30">
         <v>45715</v>
       </c>
-      <c r="AB110" s="28" t="s">
+      <c r="AB110" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="AC110" s="31">
+      <c r="AC110" s="27">
         <v>45702</v>
       </c>
-      <c r="AD110" s="31">
+      <c r="AD110" s="27">
         <v>45744</v>
       </c>
       <c r="AE110" s="15"/>
@@ -17412,57 +17496,57 @@
       <c r="AG110" s="15"/>
       <c r="AH110" s="15"/>
       <c r="AI110" s="15"/>
-      <c r="AJ110" s="34">
+      <c r="AJ110" s="30">
         <v>45744</v>
       </c>
-      <c r="AK110" s="28" t="s">
+      <c r="AK110" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="AL110" s="35" t="s">
+      <c r="AL110" s="32" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="111" spans="1:38" ht="13.2">
-      <c r="A111" s="29"/>
-      <c r="B111" s="29"/>
-      <c r="C111" s="29"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
-      <c r="H111" s="29"/>
-      <c r="I111" s="29"/>
-      <c r="J111" s="29"/>
-      <c r="K111" s="29"/>
-      <c r="L111" s="29"/>
-      <c r="M111" s="29"/>
-      <c r="N111" s="29"/>
-      <c r="O111" s="29"/>
-      <c r="P111" s="29"/>
+    <row r="111" spans="1:38" ht="13.2" hidden="1">
+      <c r="A111" s="28"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="28"/>
+      <c r="L111" s="28"/>
+      <c r="M111" s="28"/>
+      <c r="N111" s="28"/>
+      <c r="O111" s="28"/>
+      <c r="P111" s="28"/>
       <c r="Q111" s="8"/>
-      <c r="R111" s="29"/>
-      <c r="S111" s="29"/>
-      <c r="T111" s="29"/>
-      <c r="U111" s="29"/>
-      <c r="V111" s="29"/>
-      <c r="W111" s="29"/>
-      <c r="X111" s="29"/>
-      <c r="Y111" s="29"/>
-      <c r="Z111" s="29"/>
-      <c r="AA111" s="29"/>
-      <c r="AB111" s="29"/>
-      <c r="AC111" s="29"/>
-      <c r="AD111" s="29"/>
+      <c r="R111" s="28"/>
+      <c r="S111" s="28"/>
+      <c r="T111" s="28"/>
+      <c r="U111" s="28"/>
+      <c r="V111" s="28"/>
+      <c r="W111" s="28"/>
+      <c r="X111" s="28"/>
+      <c r="Y111" s="28"/>
+      <c r="Z111" s="28"/>
+      <c r="AA111" s="28"/>
+      <c r="AB111" s="28"/>
+      <c r="AC111" s="28"/>
+      <c r="AD111" s="28"/>
       <c r="AE111" s="8"/>
       <c r="AF111" s="8"/>
       <c r="AG111" s="8"/>
       <c r="AH111" s="8"/>
       <c r="AI111" s="8"/>
-      <c r="AJ111" s="29"/>
-      <c r="AK111" s="29"/>
-      <c r="AL111" s="29"/>
+      <c r="AJ111" s="28"/>
+      <c r="AK111" s="28"/>
+      <c r="AL111" s="28"/>
     </row>
-    <row r="112" spans="1:38" ht="13.2">
+    <row r="112" spans="1:38" ht="13.2" hidden="1">
       <c r="A112" s="9" t="s">
         <v>65</v>
       </c>
@@ -17564,7 +17648,7 @@
       </c>
       <c r="AL112" s="8"/>
     </row>
-    <row r="113" spans="1:38" ht="13.2">
+    <row r="113" spans="1:38" ht="13.2" hidden="1">
       <c r="A113" s="9" t="s">
         <v>65</v>
       </c>
@@ -17666,7 +17750,7 @@
       </c>
       <c r="AL113" s="8"/>
     </row>
-    <row r="114" spans="1:38" ht="13.2">
+    <row r="114" spans="1:38" ht="13.2" hidden="1">
       <c r="A114" s="9" t="s">
         <v>65</v>
       </c>
@@ -17768,7 +17852,7 @@
       </c>
       <c r="AL114" s="8"/>
     </row>
-    <row r="115" spans="1:38" ht="13.2">
+    <row r="115" spans="1:38" ht="13.2" hidden="1">
       <c r="A115" s="9" t="s">
         <v>65</v>
       </c>
@@ -17870,7 +17954,7 @@
       </c>
       <c r="AL115" s="8"/>
     </row>
-    <row r="116" spans="1:38" ht="13.2">
+    <row r="116" spans="1:38" ht="13.2" hidden="1">
       <c r="A116" s="9" t="s">
         <v>65</v>
       </c>
@@ -17972,7 +18056,7 @@
       </c>
       <c r="AL116" s="8"/>
     </row>
-    <row r="117" spans="1:38" ht="13.2">
+    <row r="117" spans="1:38" ht="13.2" hidden="1">
       <c r="A117" s="9" t="s">
         <v>65</v>
       </c>
@@ -18074,7 +18158,7 @@
       </c>
       <c r="AL117" s="8"/>
     </row>
-    <row r="118" spans="1:38" ht="13.2">
+    <row r="118" spans="1:38" ht="13.2" hidden="1">
       <c r="A118" s="9" t="s">
         <v>65</v>
       </c>
@@ -18176,7 +18260,7 @@
       </c>
       <c r="AL118" s="8"/>
     </row>
-    <row r="119" spans="1:38" ht="13.2">
+    <row r="119" spans="1:38" ht="13.2" hidden="1">
       <c r="A119" s="9" t="s">
         <v>65</v>
       </c>
@@ -18278,7 +18362,7 @@
       </c>
       <c r="AL119" s="8"/>
     </row>
-    <row r="120" spans="1:38" ht="13.2">
+    <row r="120" spans="1:38" ht="13.2" hidden="1">
       <c r="A120" s="9" t="s">
         <v>65</v>
       </c>
@@ -18380,7 +18464,7 @@
       </c>
       <c r="AL120" s="8"/>
     </row>
-    <row r="121" spans="1:38" ht="13.2">
+    <row r="121" spans="1:38" ht="13.2" hidden="1">
       <c r="A121" s="9" t="s">
         <v>65</v>
       </c>
@@ -18482,7 +18566,7 @@
       </c>
       <c r="AL121" s="8"/>
     </row>
-    <row r="122" spans="1:38" ht="13.2">
+    <row r="122" spans="1:38" ht="13.2" hidden="1">
       <c r="A122" s="9" t="s">
         <v>65</v>
       </c>
@@ -18584,7 +18668,7 @@
       </c>
       <c r="AL122" s="8"/>
     </row>
-    <row r="123" spans="1:38" ht="13.2">
+    <row r="123" spans="1:38" ht="13.2" hidden="1">
       <c r="A123" s="9" t="s">
         <v>65</v>
       </c>
@@ -18686,7 +18770,7 @@
       </c>
       <c r="AL123" s="8"/>
     </row>
-    <row r="124" spans="1:38" ht="13.2">
+    <row r="124" spans="1:38" ht="13.2" hidden="1">
       <c r="A124" s="9" t="s">
         <v>65</v>
       </c>
@@ -18788,7 +18872,7 @@
       </c>
       <c r="AL124" s="8"/>
     </row>
-    <row r="125" spans="1:38" ht="13.2">
+    <row r="125" spans="1:38" ht="13.2" hidden="1">
       <c r="A125" s="9" t="s">
         <v>65</v>
       </c>
@@ -18890,7 +18974,7 @@
       </c>
       <c r="AL125" s="8"/>
     </row>
-    <row r="126" spans="1:38" ht="13.2">
+    <row r="126" spans="1:38" ht="13.2" hidden="1">
       <c r="A126" s="9" t="s">
         <v>65</v>
       </c>
@@ -18992,7 +19076,7 @@
       </c>
       <c r="AL126" s="8"/>
     </row>
-    <row r="127" spans="1:38" ht="13.2">
+    <row r="127" spans="1:38" ht="13.2" hidden="1">
       <c r="A127" s="9" t="s">
         <v>65</v>
       </c>
@@ -19094,7 +19178,7 @@
       </c>
       <c r="AL127" s="8"/>
     </row>
-    <row r="128" spans="1:38" ht="13.2">
+    <row r="128" spans="1:38" ht="13.2" hidden="1">
       <c r="A128" s="9" t="s">
         <v>65</v>
       </c>
@@ -19196,7 +19280,7 @@
       </c>
       <c r="AL128" s="8"/>
     </row>
-    <row r="129" spans="1:38" ht="13.2">
+    <row r="129" spans="1:38" ht="13.2" hidden="1">
       <c r="A129" s="9" t="s">
         <v>65</v>
       </c>
@@ -19298,7 +19382,7 @@
       </c>
       <c r="AL129" s="8"/>
     </row>
-    <row r="130" spans="1:38" ht="13.2">
+    <row r="130" spans="1:38" ht="13.2" hidden="1">
       <c r="A130" s="9" t="s">
         <v>65</v>
       </c>
@@ -19402,7 +19486,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="131" spans="1:38" ht="13.2">
+    <row r="131" spans="1:38" ht="13.2" hidden="1">
       <c r="A131" s="9" t="s">
         <v>65</v>
       </c>
@@ -19504,7 +19588,7 @@
       </c>
       <c r="AL131" s="8"/>
     </row>
-    <row r="132" spans="1:38" ht="13.2">
+    <row r="132" spans="1:38" ht="13.2" hidden="1">
       <c r="A132" s="9" t="s">
         <v>65</v>
       </c>
@@ -19606,7 +19690,7 @@
       </c>
       <c r="AL132" s="8"/>
     </row>
-    <row r="133" spans="1:38" ht="13.2">
+    <row r="133" spans="1:38" ht="13.2" hidden="1">
       <c r="A133" s="9" t="s">
         <v>65</v>
       </c>
@@ -19708,7 +19792,7 @@
       </c>
       <c r="AL133" s="8"/>
     </row>
-    <row r="134" spans="1:38" ht="13.2">
+    <row r="134" spans="1:38" ht="13.2" hidden="1">
       <c r="A134" s="9" t="s">
         <v>65</v>
       </c>
@@ -19810,7 +19894,7 @@
       </c>
       <c r="AL134" s="8"/>
     </row>
-    <row r="135" spans="1:38" ht="13.2">
+    <row r="135" spans="1:38" ht="13.2" hidden="1">
       <c r="A135" s="9" t="s">
         <v>65</v>
       </c>
@@ -19912,7 +19996,7 @@
       </c>
       <c r="AL135" s="8"/>
     </row>
-    <row r="136" spans="1:38" ht="13.2">
+    <row r="136" spans="1:38" ht="13.2" hidden="1">
       <c r="A136" s="9" t="s">
         <v>65</v>
       </c>
@@ -20016,7 +20100,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="137" spans="1:38" ht="13.2">
+    <row r="137" spans="1:38" ht="13.2" hidden="1">
       <c r="A137" s="9" t="s">
         <v>65</v>
       </c>
@@ -20118,7 +20202,7 @@
       </c>
       <c r="AL137" s="8"/>
     </row>
-    <row r="138" spans="1:38" ht="13.2">
+    <row r="138" spans="1:38" ht="13.2" hidden="1">
       <c r="A138" s="9" t="s">
         <v>65</v>
       </c>
@@ -20222,7 +20306,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="139" spans="1:38" ht="13.2">
+    <row r="139" spans="1:38" ht="13.2" hidden="1">
       <c r="A139" s="9" t="s">
         <v>65</v>
       </c>
@@ -20308,7 +20392,7 @@
       <c r="AK139" s="8"/>
       <c r="AL139" s="8"/>
     </row>
-    <row r="140" spans="1:38" ht="13.2">
+    <row r="140" spans="1:38" ht="13.2" hidden="1">
       <c r="A140" s="9" t="s">
         <v>65</v>
       </c>
@@ -20410,7 +20494,7 @@
       </c>
       <c r="AL140" s="8"/>
     </row>
-    <row r="141" spans="1:38" ht="13.2">
+    <row r="141" spans="1:38" ht="13.2" hidden="1">
       <c r="A141" s="9" t="s">
         <v>65</v>
       </c>
@@ -20512,7 +20596,7 @@
       </c>
       <c r="AL141" s="8"/>
     </row>
-    <row r="142" spans="1:38" ht="13.2">
+    <row r="142" spans="1:38" ht="13.2" hidden="1">
       <c r="A142" s="9" t="s">
         <v>65</v>
       </c>
@@ -20614,7 +20698,7 @@
       </c>
       <c r="AL142" s="8"/>
     </row>
-    <row r="143" spans="1:38" ht="13.2">
+    <row r="143" spans="1:38" ht="13.2" hidden="1">
       <c r="A143" s="9" t="s">
         <v>65</v>
       </c>
@@ -20716,7 +20800,7 @@
       </c>
       <c r="AL143" s="8"/>
     </row>
-    <row r="144" spans="1:38" ht="13.2">
+    <row r="144" spans="1:38" ht="13.2" hidden="1">
       <c r="A144" s="9" t="s">
         <v>65</v>
       </c>
@@ -20820,7 +20904,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="145" spans="1:38" ht="13.2">
+    <row r="145" spans="1:38" ht="13.2" hidden="1">
       <c r="A145" s="9" t="s">
         <v>65</v>
       </c>
@@ -20924,7 +21008,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="146" spans="1:38" ht="13.2">
+    <row r="146" spans="1:38" ht="13.2" hidden="1">
       <c r="A146" s="9" t="s">
         <v>65</v>
       </c>
@@ -21026,7 +21110,7 @@
       </c>
       <c r="AL146" s="8"/>
     </row>
-    <row r="147" spans="1:38" ht="13.2">
+    <row r="147" spans="1:38" ht="13.2" hidden="1">
       <c r="A147" s="9" t="s">
         <v>65</v>
       </c>
@@ -21128,7 +21212,7 @@
       </c>
       <c r="AL147" s="8"/>
     </row>
-    <row r="148" spans="1:38" ht="13.2">
+    <row r="148" spans="1:38" ht="13.2" hidden="1">
       <c r="A148" s="9" t="s">
         <v>65</v>
       </c>
@@ -21232,7 +21316,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="149" spans="1:38" ht="13.2">
+    <row r="149" spans="1:38" ht="13.2" hidden="1">
       <c r="A149" s="9" t="s">
         <v>65</v>
       </c>
@@ -21334,7 +21418,7 @@
       </c>
       <c r="AL149" s="8"/>
     </row>
-    <row r="150" spans="1:38" ht="13.2">
+    <row r="150" spans="1:38" ht="13.2" hidden="1">
       <c r="A150" s="9" t="s">
         <v>65</v>
       </c>
@@ -21436,7 +21520,7 @@
       </c>
       <c r="AL150" s="8"/>
     </row>
-    <row r="151" spans="1:38" ht="13.2">
+    <row r="151" spans="1:38" ht="13.2" hidden="1">
       <c r="A151" s="9" t="s">
         <v>65</v>
       </c>
@@ -21538,7 +21622,7 @@
       </c>
       <c r="AL151" s="8"/>
     </row>
-    <row r="152" spans="1:38" ht="13.2">
+    <row r="152" spans="1:38" ht="13.2" hidden="1">
       <c r="A152" s="9" t="s">
         <v>65</v>
       </c>
@@ -21640,7 +21724,7 @@
       </c>
       <c r="AL152" s="8"/>
     </row>
-    <row r="153" spans="1:38" ht="13.2">
+    <row r="153" spans="1:38" ht="13.2" hidden="1">
       <c r="A153" s="9" t="s">
         <v>65</v>
       </c>
@@ -21744,7 +21828,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="1:38" ht="13.2">
+    <row r="154" spans="1:38" ht="13.2" hidden="1">
       <c r="A154" s="9" t="s">
         <v>65</v>
       </c>
@@ -21846,7 +21930,7 @@
       </c>
       <c r="AL154" s="8"/>
     </row>
-    <row r="155" spans="1:38" ht="13.2">
+    <row r="155" spans="1:38" ht="13.2" hidden="1">
       <c r="A155" s="9" t="s">
         <v>65</v>
       </c>
@@ -21948,7 +22032,7 @@
       </c>
       <c r="AL155" s="8"/>
     </row>
-    <row r="156" spans="1:38" ht="13.2">
+    <row r="156" spans="1:38" ht="13.2" hidden="1">
       <c r="A156" s="9" t="s">
         <v>65</v>
       </c>
@@ -22052,7 +22136,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="157" spans="1:38" ht="13.2">
+    <row r="157" spans="1:38" ht="13.2" hidden="1">
       <c r="A157" s="9" t="s">
         <v>65</v>
       </c>
@@ -22154,7 +22238,7 @@
       </c>
       <c r="AL157" s="8"/>
     </row>
-    <row r="158" spans="1:38" ht="13.2">
+    <row r="158" spans="1:38" ht="13.2" hidden="1">
       <c r="A158" s="9" t="s">
         <v>65</v>
       </c>
@@ -22256,7 +22340,7 @@
       </c>
       <c r="AL158" s="8"/>
     </row>
-    <row r="159" spans="1:38" ht="13.2">
+    <row r="159" spans="1:38" ht="13.2" hidden="1">
       <c r="A159" s="9" t="s">
         <v>65</v>
       </c>
@@ -22358,7 +22442,7 @@
       </c>
       <c r="AL159" s="8"/>
     </row>
-    <row r="160" spans="1:38" ht="13.2">
+    <row r="160" spans="1:38" ht="13.2" hidden="1">
       <c r="A160" s="9" t="s">
         <v>65</v>
       </c>
@@ -22460,7 +22544,7 @@
       </c>
       <c r="AL160" s="8"/>
     </row>
-    <row r="161" spans="1:38" ht="13.2">
+    <row r="161" spans="1:38" ht="13.2" hidden="1">
       <c r="A161" s="9" t="s">
         <v>65</v>
       </c>
@@ -22564,7 +22648,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="162" spans="1:38" ht="13.2">
+    <row r="162" spans="1:38" ht="13.2" hidden="1">
       <c r="A162" s="9" t="s">
         <v>65</v>
       </c>
@@ -22666,7 +22750,7 @@
       </c>
       <c r="AL162" s="8"/>
     </row>
-    <row r="163" spans="1:38" ht="13.2">
+    <row r="163" spans="1:38" ht="13.2" hidden="1">
       <c r="A163" s="9" t="s">
         <v>65</v>
       </c>
@@ -22770,7 +22854,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="164" spans="1:38" ht="13.2">
+    <row r="164" spans="1:38" ht="13.2" hidden="1">
       <c r="A164" s="9" t="s">
         <v>65</v>
       </c>
@@ -22872,7 +22956,7 @@
       </c>
       <c r="AL164" s="8"/>
     </row>
-    <row r="165" spans="1:38" ht="13.2">
+    <row r="165" spans="1:38" ht="13.2" hidden="1">
       <c r="A165" s="9" t="s">
         <v>65</v>
       </c>
@@ -22974,7 +23058,7 @@
       </c>
       <c r="AL165" s="8"/>
     </row>
-    <row r="166" spans="1:38" ht="13.2">
+    <row r="166" spans="1:38" ht="13.2" hidden="1">
       <c r="A166" s="9" t="s">
         <v>65</v>
       </c>
@@ -23076,7 +23160,7 @@
       </c>
       <c r="AL166" s="8"/>
     </row>
-    <row r="167" spans="1:38" ht="13.2">
+    <row r="167" spans="1:38" ht="13.2" hidden="1">
       <c r="A167" s="9" t="s">
         <v>65</v>
       </c>
@@ -23180,7 +23264,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="168" spans="1:38" ht="13.2">
+    <row r="168" spans="1:38" ht="13.2" hidden="1">
       <c r="A168" s="9" t="s">
         <v>65</v>
       </c>
@@ -23282,7 +23366,7 @@
       </c>
       <c r="AL168" s="8"/>
     </row>
-    <row r="169" spans="1:38" ht="13.2">
+    <row r="169" spans="1:38" ht="13.2" hidden="1">
       <c r="A169" s="9" t="s">
         <v>65</v>
       </c>
@@ -23384,7 +23468,7 @@
       </c>
       <c r="AL169" s="8"/>
     </row>
-    <row r="170" spans="1:38" ht="13.2">
+    <row r="170" spans="1:38" ht="13.2" hidden="1">
       <c r="A170" s="9" t="s">
         <v>65</v>
       </c>
@@ -23488,7 +23572,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="171" spans="1:38" ht="13.2">
+    <row r="171" spans="1:38" ht="13.2" hidden="1">
       <c r="A171" s="9" t="s">
         <v>65</v>
       </c>
@@ -23592,7 +23676,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="172" spans="1:38" ht="13.2">
+    <row r="172" spans="1:38" ht="13.2" hidden="1">
       <c r="A172" s="9" t="s">
         <v>65</v>
       </c>
@@ -23694,7 +23778,7 @@
       </c>
       <c r="AL172" s="8"/>
     </row>
-    <row r="173" spans="1:38" ht="13.2">
+    <row r="173" spans="1:38" ht="13.2" hidden="1">
       <c r="A173" s="9" t="s">
         <v>65</v>
       </c>
@@ -23796,7 +23880,7 @@
       </c>
       <c r="AL173" s="8"/>
     </row>
-    <row r="174" spans="1:38" ht="13.2">
+    <row r="174" spans="1:38" ht="13.2" hidden="1">
       <c r="A174" s="9" t="s">
         <v>65</v>
       </c>
@@ -23898,7 +23982,7 @@
       </c>
       <c r="AL174" s="8"/>
     </row>
-    <row r="175" spans="1:38" ht="13.2">
+    <row r="175" spans="1:38" ht="13.2" hidden="1">
       <c r="A175" s="9" t="s">
         <v>65</v>
       </c>
@@ -24002,7 +24086,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="176" spans="1:38" ht="13.2">
+    <row r="176" spans="1:38" ht="13.2" hidden="1">
       <c r="A176" s="9" t="s">
         <v>65</v>
       </c>
@@ -24104,7 +24188,7 @@
       </c>
       <c r="AL176" s="8"/>
     </row>
-    <row r="177" spans="1:38" ht="13.2">
+    <row r="177" spans="1:38" ht="13.2" hidden="1">
       <c r="A177" s="9" t="s">
         <v>65</v>
       </c>
@@ -24206,7 +24290,7 @@
       </c>
       <c r="AL177" s="8"/>
     </row>
-    <row r="178" spans="1:38" ht="13.2">
+    <row r="178" spans="1:38" ht="13.2" hidden="1">
       <c r="A178" s="9" t="s">
         <v>65</v>
       </c>
@@ -24310,7 +24394,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="179" spans="1:38" ht="13.2">
+    <row r="179" spans="1:38" ht="13.2" hidden="1">
       <c r="A179" s="9" t="s">
         <v>65</v>
       </c>
@@ -24414,7 +24498,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="180" spans="1:38" ht="13.2">
+    <row r="180" spans="1:38" ht="13.2" hidden="1">
       <c r="A180" s="9" t="s">
         <v>65</v>
       </c>
@@ -24516,7 +24600,7 @@
       </c>
       <c r="AL180" s="8"/>
     </row>
-    <row r="181" spans="1:38" ht="13.2">
+    <row r="181" spans="1:38" ht="13.2" hidden="1">
       <c r="A181" s="9" t="s">
         <v>65</v>
       </c>
@@ -24620,7 +24704,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="182" spans="1:38" ht="13.2">
+    <row r="182" spans="1:38" ht="13.2" hidden="1">
       <c r="A182" s="9" t="s">
         <v>65</v>
       </c>
@@ -24724,7 +24808,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="183" spans="1:38" ht="13.2">
+    <row r="183" spans="1:38" ht="13.2" hidden="1">
       <c r="A183" s="9" t="s">
         <v>65</v>
       </c>
@@ -24826,7 +24910,7 @@
       </c>
       <c r="AL183" s="8"/>
     </row>
-    <row r="184" spans="1:38" ht="13.2">
+    <row r="184" spans="1:38" ht="13.2" hidden="1">
       <c r="A184" s="9" t="s">
         <v>65</v>
       </c>
@@ -24928,7 +25012,7 @@
       </c>
       <c r="AL184" s="8"/>
     </row>
-    <row r="185" spans="1:38" ht="13.2">
+    <row r="185" spans="1:38" ht="13.2" hidden="1">
       <c r="A185" s="9" t="s">
         <v>65</v>
       </c>
@@ -25030,7 +25114,7 @@
       </c>
       <c r="AL185" s="8"/>
     </row>
-    <row r="186" spans="1:38" ht="13.2">
+    <row r="186" spans="1:38" ht="13.2" hidden="1">
       <c r="A186" s="9" t="s">
         <v>65</v>
       </c>
@@ -25134,7 +25218,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="187" spans="1:38" ht="13.2">
+    <row r="187" spans="1:38" ht="13.2" hidden="1">
       <c r="A187" s="9" t="s">
         <v>65</v>
       </c>
@@ -25236,7 +25320,7 @@
       </c>
       <c r="AL187" s="8"/>
     </row>
-    <row r="188" spans="1:38" ht="13.2">
+    <row r="188" spans="1:38" ht="13.2" hidden="1">
       <c r="A188" s="9" t="s">
         <v>65</v>
       </c>
@@ -25340,7 +25424,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="189" spans="1:38" ht="13.2">
+    <row r="189" spans="1:38" ht="13.2" hidden="1">
       <c r="A189" s="9" t="s">
         <v>65</v>
       </c>
@@ -25442,7 +25526,7 @@
       </c>
       <c r="AL189" s="8"/>
     </row>
-    <row r="190" spans="1:38" ht="13.2">
+    <row r="190" spans="1:38" ht="13.2" hidden="1">
       <c r="A190" s="9" t="s">
         <v>65</v>
       </c>
@@ -25544,7 +25628,7 @@
       </c>
       <c r="AL190" s="8"/>
     </row>
-    <row r="191" spans="1:38" ht="13.2">
+    <row r="191" spans="1:38" ht="13.2" hidden="1">
       <c r="A191" s="9" t="s">
         <v>65</v>
       </c>
@@ -25646,7 +25730,7 @@
       </c>
       <c r="AL191" s="8"/>
     </row>
-    <row r="192" spans="1:38" ht="13.2">
+    <row r="192" spans="1:38" ht="13.2" hidden="1">
       <c r="A192" s="9" t="s">
         <v>65</v>
       </c>
@@ -25750,7 +25834,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="193" spans="1:38" ht="13.2">
+    <row r="193" spans="1:38" ht="13.2" hidden="1">
       <c r="A193" s="9" t="s">
         <v>65</v>
       </c>
@@ -25854,7 +25938,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="194" spans="1:38" ht="13.2">
+    <row r="194" spans="1:38" ht="13.2" hidden="1">
       <c r="A194" s="9" t="s">
         <v>65</v>
       </c>
@@ -25958,7 +26042,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="195" spans="1:38" ht="13.2">
+    <row r="195" spans="1:38" ht="13.2" hidden="1">
       <c r="A195" s="9" t="s">
         <v>65</v>
       </c>
@@ -26060,7 +26144,7 @@
       </c>
       <c r="AL195" s="8"/>
     </row>
-    <row r="196" spans="1:38" ht="13.2">
+    <row r="196" spans="1:38" ht="13.2" hidden="1">
       <c r="A196" s="9" t="s">
         <v>65</v>
       </c>
@@ -26162,7 +26246,7 @@
       </c>
       <c r="AL196" s="8"/>
     </row>
-    <row r="197" spans="1:38" ht="13.2">
+    <row r="197" spans="1:38" ht="13.2" hidden="1">
       <c r="A197" s="9" t="s">
         <v>65</v>
       </c>
@@ -26264,7 +26348,7 @@
       </c>
       <c r="AL197" s="8"/>
     </row>
-    <row r="198" spans="1:38" ht="13.2">
+    <row r="198" spans="1:38" ht="13.2" hidden="1">
       <c r="A198" s="9" t="s">
         <v>65</v>
       </c>
@@ -26368,7 +26452,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="199" spans="1:38" ht="13.2">
+    <row r="199" spans="1:38" ht="13.2" hidden="1">
       <c r="A199" s="9" t="s">
         <v>65</v>
       </c>
@@ -26470,7 +26554,7 @@
       </c>
       <c r="AL199" s="8"/>
     </row>
-    <row r="200" spans="1:38" ht="13.2">
+    <row r="200" spans="1:38" ht="13.2" hidden="1">
       <c r="A200" s="9" t="s">
         <v>65</v>
       </c>
@@ -26572,7 +26656,7 @@
       </c>
       <c r="AL200" s="8"/>
     </row>
-    <row r="201" spans="1:38" ht="13.2">
+    <row r="201" spans="1:38" ht="13.2" hidden="1">
       <c r="A201" s="9" t="s">
         <v>65</v>
       </c>
@@ -26676,7 +26760,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="202" spans="1:38" ht="13.2">
+    <row r="202" spans="1:38" ht="13.2" hidden="1">
       <c r="A202" s="9" t="s">
         <v>65</v>
       </c>
@@ -26780,7 +26864,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="203" spans="1:38" ht="13.2">
+    <row r="203" spans="1:38" ht="13.2" hidden="1">
       <c r="A203" s="9" t="s">
         <v>65</v>
       </c>
@@ -26882,7 +26966,7 @@
       </c>
       <c r="AL203" s="8"/>
     </row>
-    <row r="204" spans="1:38" ht="13.2">
+    <row r="204" spans="1:38" ht="13.2" hidden="1">
       <c r="A204" s="9" t="s">
         <v>65</v>
       </c>
@@ -26984,7 +27068,7 @@
       </c>
       <c r="AL204" s="8"/>
     </row>
-    <row r="205" spans="1:38" ht="13.2">
+    <row r="205" spans="1:38" ht="13.2" hidden="1">
       <c r="A205" s="9" t="s">
         <v>65</v>
       </c>
@@ -27086,7 +27170,7 @@
       </c>
       <c r="AL205" s="8"/>
     </row>
-    <row r="206" spans="1:38" ht="13.2">
+    <row r="206" spans="1:38" ht="13.2" hidden="1">
       <c r="A206" s="9" t="s">
         <v>65</v>
       </c>
@@ -27190,7 +27274,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="207" spans="1:38" ht="13.2">
+    <row r="207" spans="1:38" ht="13.2" hidden="1">
       <c r="A207" s="9" t="s">
         <v>65</v>
       </c>
@@ -27294,7 +27378,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="208" spans="1:38" ht="13.2">
+    <row r="208" spans="1:38" ht="13.2" hidden="1">
       <c r="A208" s="9" t="s">
         <v>65</v>
       </c>
@@ -27396,7 +27480,7 @@
       </c>
       <c r="AL208" s="8"/>
     </row>
-    <row r="209" spans="1:38" ht="13.2">
+    <row r="209" spans="1:38" ht="13.2" hidden="1">
       <c r="A209" s="9" t="s">
         <v>65</v>
       </c>
@@ -27498,7 +27582,7 @@
       </c>
       <c r="AL209" s="8"/>
     </row>
-    <row r="210" spans="1:38" ht="13.2">
+    <row r="210" spans="1:38" ht="13.2" hidden="1">
       <c r="A210" s="9" t="s">
         <v>65</v>
       </c>
@@ -27602,7 +27686,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="211" spans="1:38" ht="13.2">
+    <row r="211" spans="1:38" ht="13.2" hidden="1">
       <c r="A211" s="9" t="s">
         <v>65</v>
       </c>
@@ -27704,7 +27788,7 @@
       </c>
       <c r="AL211" s="8"/>
     </row>
-    <row r="212" spans="1:38" ht="13.2">
+    <row r="212" spans="1:38" ht="13.2" hidden="1">
       <c r="A212" s="9" t="s">
         <v>65</v>
       </c>
@@ -27806,7 +27890,7 @@
       </c>
       <c r="AL212" s="8"/>
     </row>
-    <row r="213" spans="1:38" ht="13.2">
+    <row r="213" spans="1:38" ht="13.2" hidden="1">
       <c r="A213" s="9" t="s">
         <v>65</v>
       </c>
@@ -27910,7 +27994,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="214" spans="1:38" ht="13.2">
+    <row r="214" spans="1:38" ht="13.2" hidden="1">
       <c r="A214" s="9" t="s">
         <v>65</v>
       </c>
@@ -28012,7 +28096,7 @@
       </c>
       <c r="AL214" s="8"/>
     </row>
-    <row r="215" spans="1:38" ht="13.2">
+    <row r="215" spans="1:38" ht="13.2" hidden="1">
       <c r="A215" s="9" t="s">
         <v>65</v>
       </c>
@@ -28114,7 +28198,7 @@
       </c>
       <c r="AL215" s="8"/>
     </row>
-    <row r="216" spans="1:38" ht="13.2">
+    <row r="216" spans="1:38" ht="13.2" hidden="1">
       <c r="A216" s="9" t="s">
         <v>65</v>
       </c>
@@ -28218,7 +28302,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:38" ht="13.2">
+    <row r="217" spans="1:38" ht="13.2" hidden="1">
       <c r="A217" s="9" t="s">
         <v>65</v>
       </c>
@@ -28322,7 +28406,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="218" spans="1:38" ht="13.2">
+    <row r="218" spans="1:38" ht="13.2" hidden="1">
       <c r="A218" s="9" t="s">
         <v>65</v>
       </c>
@@ -28426,7 +28510,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="219" spans="1:38" ht="13.2">
+    <row r="219" spans="1:38" ht="13.2" hidden="1">
       <c r="A219" s="9" t="s">
         <v>65</v>
       </c>
@@ -28528,7 +28612,7 @@
       </c>
       <c r="AL219" s="8"/>
     </row>
-    <row r="220" spans="1:38" ht="13.2">
+    <row r="220" spans="1:38" ht="13.2" hidden="1">
       <c r="A220" s="9" t="s">
         <v>65</v>
       </c>
@@ -28630,7 +28714,7 @@
       </c>
       <c r="AL220" s="8"/>
     </row>
-    <row r="221" spans="1:38" ht="13.2">
+    <row r="221" spans="1:38" ht="13.2" hidden="1">
       <c r="A221" s="9" t="s">
         <v>65</v>
       </c>
@@ -28732,7 +28816,7 @@
       </c>
       <c r="AL221" s="8"/>
     </row>
-    <row r="222" spans="1:38" ht="13.2">
+    <row r="222" spans="1:38" ht="13.2" hidden="1">
       <c r="A222" s="9" t="s">
         <v>65</v>
       </c>
@@ -28834,7 +28918,7 @@
       </c>
       <c r="AL222" s="8"/>
     </row>
-    <row r="223" spans="1:38" ht="13.2">
+    <row r="223" spans="1:38" ht="13.2" hidden="1">
       <c r="A223" s="9" t="s">
         <v>65</v>
       </c>
@@ -28938,7 +29022,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="224" spans="1:38" ht="13.2">
+    <row r="224" spans="1:38" ht="13.2" hidden="1">
       <c r="A224" s="9" t="s">
         <v>65</v>
       </c>
@@ -29042,7 +29126,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="225" spans="1:38" ht="13.2">
+    <row r="225" spans="1:38" ht="13.2" hidden="1">
       <c r="A225" s="9" t="s">
         <v>65</v>
       </c>
@@ -29146,7 +29230,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="226" spans="1:38" ht="13.2">
+    <row r="226" spans="1:38" ht="13.2" hidden="1">
       <c r="A226" s="9" t="s">
         <v>65</v>
       </c>
@@ -29248,7 +29332,7 @@
       </c>
       <c r="AL226" s="8"/>
     </row>
-    <row r="227" spans="1:38" ht="13.2">
+    <row r="227" spans="1:38" ht="13.2" hidden="1">
       <c r="A227" s="9" t="s">
         <v>65</v>
       </c>
@@ -29352,7 +29436,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:38" ht="13.2">
+    <row r="228" spans="1:38" ht="13.2" hidden="1">
       <c r="A228" s="9" t="s">
         <v>65</v>
       </c>
@@ -29456,7 +29540,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:38" ht="13.2">
+    <row r="229" spans="1:38" ht="13.2" hidden="1">
       <c r="A229" s="9" t="s">
         <v>65</v>
       </c>
@@ -29558,7 +29642,7 @@
       </c>
       <c r="AL229" s="8"/>
     </row>
-    <row r="230" spans="1:38" ht="13.2">
+    <row r="230" spans="1:38" ht="13.2" hidden="1">
       <c r="A230" s="9" t="s">
         <v>65</v>
       </c>
@@ -29660,7 +29744,7 @@
       </c>
       <c r="AL230" s="8"/>
     </row>
-    <row r="231" spans="1:38" ht="13.2">
+    <row r="231" spans="1:38" ht="13.2" hidden="1">
       <c r="A231" s="9" t="s">
         <v>65</v>
       </c>
@@ -29764,7 +29848,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="232" spans="1:38" ht="13.2">
+    <row r="232" spans="1:38" ht="13.2" hidden="1">
       <c r="A232" s="9" t="s">
         <v>65</v>
       </c>
@@ -29866,7 +29950,7 @@
       </c>
       <c r="AL232" s="8"/>
     </row>
-    <row r="233" spans="1:38" ht="13.2">
+    <row r="233" spans="1:38" ht="13.2" hidden="1">
       <c r="A233" s="9" t="s">
         <v>65</v>
       </c>
@@ -29968,7 +30052,7 @@
       </c>
       <c r="AL233" s="8"/>
     </row>
-    <row r="234" spans="1:38" ht="13.2">
+    <row r="234" spans="1:38" ht="13.2" hidden="1">
       <c r="A234" s="9" t="s">
         <v>65</v>
       </c>
@@ -30072,7 +30156,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="235" spans="1:38" ht="13.2">
+    <row r="235" spans="1:38" ht="13.2" hidden="1">
       <c r="A235" s="9" t="s">
         <v>65</v>
       </c>
@@ -30174,7 +30258,7 @@
       </c>
       <c r="AL235" s="8"/>
     </row>
-    <row r="236" spans="1:38" ht="13.2">
+    <row r="236" spans="1:38" ht="13.2" hidden="1">
       <c r="A236" s="9" t="s">
         <v>65</v>
       </c>
@@ -30278,7 +30362,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="237" spans="1:38" ht="13.2">
+    <row r="237" spans="1:38" ht="13.2" hidden="1">
       <c r="A237" s="9" t="s">
         <v>65</v>
       </c>
@@ -30380,7 +30464,7 @@
       </c>
       <c r="AL237" s="8"/>
     </row>
-    <row r="238" spans="1:38" ht="13.2">
+    <row r="238" spans="1:38" ht="13.2" hidden="1">
       <c r="A238" s="9" t="s">
         <v>65</v>
       </c>
@@ -30484,7 +30568,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="239" spans="1:38" ht="13.2">
+    <row r="239" spans="1:38" ht="13.2" hidden="1">
       <c r="A239" s="9" t="s">
         <v>65</v>
       </c>
@@ -30586,7 +30670,7 @@
       </c>
       <c r="AL239" s="8"/>
     </row>
-    <row r="240" spans="1:38" ht="13.2">
+    <row r="240" spans="1:38" ht="13.2" hidden="1">
       <c r="A240" s="9" t="s">
         <v>65</v>
       </c>
@@ -30690,7 +30774,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="241" spans="1:38" ht="13.2">
+    <row r="241" spans="1:38" ht="13.2" hidden="1">
       <c r="A241" s="9" t="s">
         <v>65</v>
       </c>
@@ -30792,7 +30876,7 @@
       </c>
       <c r="AL241" s="8"/>
     </row>
-    <row r="242" spans="1:38" ht="13.2">
+    <row r="242" spans="1:38" ht="13.2" hidden="1">
       <c r="A242" s="9" t="s">
         <v>65</v>
       </c>
@@ -30894,7 +30978,7 @@
       </c>
       <c r="AL242" s="8"/>
     </row>
-    <row r="243" spans="1:38" ht="13.2">
+    <row r="243" spans="1:38" ht="13.2" hidden="1">
       <c r="A243" s="9" t="s">
         <v>65</v>
       </c>
@@ -30998,7 +31082,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="244" spans="1:38" ht="13.2">
+    <row r="244" spans="1:38" ht="13.2" hidden="1">
       <c r="A244" s="9" t="s">
         <v>65</v>
       </c>
@@ -31100,7 +31184,7 @@
       </c>
       <c r="AL244" s="8"/>
     </row>
-    <row r="245" spans="1:38" ht="13.2">
+    <row r="245" spans="1:38" ht="13.2" hidden="1">
       <c r="A245" s="9" t="s">
         <v>65</v>
       </c>
@@ -31204,7 +31288,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="246" spans="1:38" ht="13.2">
+    <row r="246" spans="1:38" ht="13.2" hidden="1">
       <c r="A246" s="9" t="s">
         <v>65</v>
       </c>
@@ -31308,7 +31392,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="247" spans="1:38" ht="13.2">
+    <row r="247" spans="1:38" ht="13.2" hidden="1">
       <c r="A247" s="9" t="s">
         <v>65</v>
       </c>
@@ -31410,7 +31494,7 @@
       </c>
       <c r="AL247" s="8"/>
     </row>
-    <row r="248" spans="1:38" ht="13.2">
+    <row r="248" spans="1:38" ht="13.2" hidden="1">
       <c r="A248" s="9" t="s">
         <v>65</v>
       </c>
@@ -31722,93 +31806,93 @@
         <v>372</v>
       </c>
     </row>
-    <row r="251" spans="1:38" ht="13.2">
-      <c r="A251" s="28" t="s">
+    <row r="251" spans="1:38" ht="13.2" hidden="1">
+      <c r="A251" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B251" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C251" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D251" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E251" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F251" s="28" t="s">
+      <c r="B251" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C251" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D251" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E251" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F251" s="31" t="s">
         <v>1253</v>
       </c>
-      <c r="G251" s="28" t="s">
+      <c r="G251" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="H251" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I251" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="J251" s="28" t="s">
+      <c r="H251" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I251" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J251" s="31" t="s">
         <v>1275</v>
       </c>
-      <c r="K251" s="28" t="s">
+      <c r="K251" s="31" t="s">
         <v>1276</v>
       </c>
-      <c r="L251" s="30" t="s">
+      <c r="L251" s="33" t="s">
         <v>1277</v>
       </c>
-      <c r="M251" s="30" t="s">
+      <c r="M251" s="33" t="s">
         <v>1278</v>
       </c>
-      <c r="N251" s="31">
+      <c r="N251" s="27">
         <v>45625</v>
       </c>
-      <c r="O251" s="32">
+      <c r="O251" s="34">
         <v>4</v>
       </c>
-      <c r="P251" s="28" t="s">
+      <c r="P251" s="31" t="s">
         <v>60</v>
       </c>
       <c r="Q251" s="15"/>
-      <c r="R251" s="28" t="s">
+      <c r="R251" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="S251" s="28" t="s">
+      <c r="S251" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="T251" s="30" t="s">
+      <c r="T251" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="U251" s="30" t="s">
+      <c r="U251" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="V251" s="31">
+      <c r="V251" s="27">
         <v>45678</v>
       </c>
-      <c r="W251" s="31">
+      <c r="W251" s="27">
         <v>45678</v>
       </c>
-      <c r="X251" s="30" t="s">
+      <c r="X251" s="33" t="s">
         <v>1279</v>
       </c>
-      <c r="Y251" s="31">
+      <c r="Y251" s="27">
         <v>45678</v>
       </c>
-      <c r="Z251" s="33">
+      <c r="Z251" s="29">
         <v>4</v>
       </c>
-      <c r="AA251" s="34">
+      <c r="AA251" s="30">
         <v>45708</v>
       </c>
-      <c r="AB251" s="28" t="s">
+      <c r="AB251" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="AC251" s="31">
+      <c r="AC251" s="27">
         <v>45708</v>
       </c>
-      <c r="AD251" s="31">
+      <c r="AD251" s="27">
         <v>45692</v>
       </c>
       <c r="AE251" s="15"/>
@@ -31816,57 +31900,57 @@
       <c r="AG251" s="15"/>
       <c r="AH251" s="15"/>
       <c r="AI251" s="15"/>
-      <c r="AJ251" s="34">
+      <c r="AJ251" s="30">
         <v>45692</v>
       </c>
-      <c r="AK251" s="28" t="s">
+      <c r="AK251" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="AL251" s="35" t="s">
+      <c r="AL251" s="32" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="252" spans="1:38" ht="13.2">
-      <c r="A252" s="29"/>
-      <c r="B252" s="29"/>
-      <c r="C252" s="29"/>
-      <c r="D252" s="29"/>
-      <c r="E252" s="29"/>
-      <c r="F252" s="29"/>
-      <c r="G252" s="29"/>
-      <c r="H252" s="29"/>
-      <c r="I252" s="29"/>
-      <c r="J252" s="29"/>
-      <c r="K252" s="29"/>
-      <c r="L252" s="29"/>
-      <c r="M252" s="29"/>
-      <c r="N252" s="29"/>
-      <c r="O252" s="29"/>
-      <c r="P252" s="29"/>
+    <row r="252" spans="1:38" ht="13.2" hidden="1">
+      <c r="A252" s="28"/>
+      <c r="B252" s="28"/>
+      <c r="C252" s="28"/>
+      <c r="D252" s="28"/>
+      <c r="E252" s="28"/>
+      <c r="F252" s="28"/>
+      <c r="G252" s="28"/>
+      <c r="H252" s="28"/>
+      <c r="I252" s="28"/>
+      <c r="J252" s="28"/>
+      <c r="K252" s="28"/>
+      <c r="L252" s="28"/>
+      <c r="M252" s="28"/>
+      <c r="N252" s="28"/>
+      <c r="O252" s="28"/>
+      <c r="P252" s="28"/>
       <c r="Q252" s="8"/>
-      <c r="R252" s="29"/>
-      <c r="S252" s="29"/>
-      <c r="T252" s="29"/>
-      <c r="U252" s="29"/>
-      <c r="V252" s="29"/>
-      <c r="W252" s="29"/>
-      <c r="X252" s="29"/>
-      <c r="Y252" s="29"/>
-      <c r="Z252" s="29"/>
-      <c r="AA252" s="29"/>
-      <c r="AB252" s="29"/>
-      <c r="AC252" s="29"/>
-      <c r="AD252" s="29"/>
+      <c r="R252" s="28"/>
+      <c r="S252" s="28"/>
+      <c r="T252" s="28"/>
+      <c r="U252" s="28"/>
+      <c r="V252" s="28"/>
+      <c r="W252" s="28"/>
+      <c r="X252" s="28"/>
+      <c r="Y252" s="28"/>
+      <c r="Z252" s="28"/>
+      <c r="AA252" s="28"/>
+      <c r="AB252" s="28"/>
+      <c r="AC252" s="28"/>
+      <c r="AD252" s="28"/>
       <c r="AE252" s="8"/>
       <c r="AF252" s="8"/>
       <c r="AG252" s="8"/>
       <c r="AH252" s="8"/>
       <c r="AI252" s="8"/>
-      <c r="AJ252" s="29"/>
-      <c r="AK252" s="29"/>
-      <c r="AL252" s="29"/>
+      <c r="AJ252" s="28"/>
+      <c r="AK252" s="28"/>
+      <c r="AL252" s="28"/>
     </row>
-    <row r="253" spans="1:38" ht="13.2">
+    <row r="253" spans="1:38" ht="13.2" hidden="1">
       <c r="A253" s="9" t="s">
         <v>65</v>
       </c>
@@ -32178,7 +32262,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="256" spans="1:38" ht="13.2">
+    <row r="256" spans="1:38" ht="13.2" hidden="1">
       <c r="A256" s="9" t="s">
         <v>65</v>
       </c>
@@ -32386,7 +32470,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="258" spans="1:38" ht="13.2">
+    <row r="258" spans="1:38" ht="13.2" hidden="1">
       <c r="A258" s="9" t="s">
         <v>65</v>
       </c>
@@ -32594,7 +32678,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="260" spans="1:38" ht="13.2">
+    <row r="260" spans="1:38" ht="13.2" hidden="1">
       <c r="A260" s="9" t="s">
         <v>1315</v>
       </c>
@@ -32680,7 +32764,7 @@
       <c r="AK260" s="8"/>
       <c r="AL260" s="8"/>
     </row>
-    <row r="261" spans="1:38" ht="13.2">
+    <row r="261" spans="1:38" ht="13.2" hidden="1">
       <c r="A261" s="9" t="s">
         <v>1315</v>
       </c>
@@ -32766,7 +32850,7 @@
       <c r="AK261" s="8"/>
       <c r="AL261" s="8"/>
     </row>
-    <row r="262" spans="1:38" ht="13.2">
+    <row r="262" spans="1:38" ht="13.2" hidden="1">
       <c r="A262" s="9" t="s">
         <v>1315</v>
       </c>
@@ -32852,7 +32936,7 @@
       <c r="AK262" s="8"/>
       <c r="AL262" s="8"/>
     </row>
-    <row r="263" spans="1:38" ht="13.2">
+    <row r="263" spans="1:38" ht="13.2" hidden="1">
       <c r="A263" s="9" t="s">
         <v>1315</v>
       </c>
@@ -32938,7 +33022,7 @@
       <c r="AK263" s="8"/>
       <c r="AL263" s="8"/>
     </row>
-    <row r="264" spans="1:38" ht="13.2">
+    <row r="264" spans="1:38" ht="13.2" hidden="1">
       <c r="A264" s="9" t="s">
         <v>1315</v>
       </c>
@@ -33024,7 +33108,7 @@
       <c r="AK264" s="8"/>
       <c r="AL264" s="8"/>
     </row>
-    <row r="265" spans="1:38" ht="13.2">
+    <row r="265" spans="1:38" ht="13.2" hidden="1">
       <c r="A265" s="9" t="s">
         <v>1315</v>
       </c>
@@ -33110,7 +33194,7 @@
       <c r="AK265" s="8"/>
       <c r="AL265" s="8"/>
     </row>
-    <row r="266" spans="1:38" ht="13.2">
+    <row r="266" spans="1:38" ht="13.2" hidden="1">
       <c r="A266" s="9" t="s">
         <v>1315</v>
       </c>
@@ -33196,7 +33280,7 @@
       <c r="AK266" s="8"/>
       <c r="AL266" s="8"/>
     </row>
-    <row r="267" spans="1:38" ht="13.2">
+    <row r="267" spans="1:38" ht="13.2" hidden="1">
       <c r="A267" s="9" t="s">
         <v>1315</v>
       </c>
@@ -33282,7 +33366,7 @@
       <c r="AK267" s="8"/>
       <c r="AL267" s="8"/>
     </row>
-    <row r="268" spans="1:38" ht="13.2">
+    <row r="268" spans="1:38" ht="13.2" hidden="1">
       <c r="A268" s="9" t="s">
         <v>1315</v>
       </c>
@@ -33368,7 +33452,7 @@
       <c r="AK268" s="8"/>
       <c r="AL268" s="8"/>
     </row>
-    <row r="269" spans="1:38" ht="13.2">
+    <row r="269" spans="1:38" ht="13.2" hidden="1">
       <c r="A269" s="9" t="s">
         <v>1315</v>
       </c>
@@ -33454,7 +33538,7 @@
       <c r="AK269" s="8"/>
       <c r="AL269" s="8"/>
     </row>
-    <row r="270" spans="1:38" ht="13.2">
+    <row r="270" spans="1:38" ht="13.2" hidden="1">
       <c r="A270" s="9" t="s">
         <v>1315</v>
       </c>
@@ -33540,7 +33624,7 @@
       <c r="AK270" s="8"/>
       <c r="AL270" s="8"/>
     </row>
-    <row r="271" spans="1:38" ht="13.2">
+    <row r="271" spans="1:38" ht="13.2" hidden="1">
       <c r="A271" s="9" t="s">
         <v>1315</v>
       </c>
@@ -33626,7 +33710,7 @@
       <c r="AK271" s="8"/>
       <c r="AL271" s="8"/>
     </row>
-    <row r="272" spans="1:38" ht="13.2">
+    <row r="272" spans="1:38" ht="13.2" hidden="1">
       <c r="A272" s="9" t="s">
         <v>1315</v>
       </c>
@@ -33712,7 +33796,7 @@
       <c r="AK272" s="8"/>
       <c r="AL272" s="8"/>
     </row>
-    <row r="273" spans="1:38" ht="13.2">
+    <row r="273" spans="1:38" ht="13.2" hidden="1">
       <c r="A273" s="9" t="s">
         <v>1315</v>
       </c>
@@ -33798,7 +33882,7 @@
       <c r="AK273" s="8"/>
       <c r="AL273" s="8"/>
     </row>
-    <row r="274" spans="1:38" ht="13.2">
+    <row r="274" spans="1:38" ht="13.2" hidden="1">
       <c r="A274" s="9" t="s">
         <v>1315</v>
       </c>
@@ -33884,7 +33968,7 @@
       <c r="AK274" s="8"/>
       <c r="AL274" s="8"/>
     </row>
-    <row r="275" spans="1:38" ht="13.2">
+    <row r="275" spans="1:38" ht="13.2" hidden="1">
       <c r="A275" s="9" t="s">
         <v>1315</v>
       </c>
@@ -33970,7 +34054,7 @@
       <c r="AK275" s="8"/>
       <c r="AL275" s="8"/>
     </row>
-    <row r="276" spans="1:38" ht="13.2">
+    <row r="276" spans="1:38" ht="13.2" hidden="1">
       <c r="A276" s="9" t="s">
         <v>1315</v>
       </c>
@@ -34056,7 +34140,7 @@
       <c r="AK276" s="8"/>
       <c r="AL276" s="8"/>
     </row>
-    <row r="277" spans="1:38" ht="13.2">
+    <row r="277" spans="1:38" ht="13.2" hidden="1">
       <c r="A277" s="9" t="s">
         <v>1315</v>
       </c>
@@ -34142,7 +34226,7 @@
       <c r="AK277" s="8"/>
       <c r="AL277" s="8"/>
     </row>
-    <row r="278" spans="1:38" ht="13.2">
+    <row r="278" spans="1:38" ht="13.2" hidden="1">
       <c r="A278" s="9" t="s">
         <v>1315</v>
       </c>
@@ -34228,7 +34312,7 @@
       <c r="AK278" s="8"/>
       <c r="AL278" s="8"/>
     </row>
-    <row r="279" spans="1:38" ht="13.2">
+    <row r="279" spans="1:38" ht="13.2" hidden="1">
       <c r="A279" s="9" t="s">
         <v>1315</v>
       </c>
@@ -34314,7 +34398,7 @@
       <c r="AK279" s="8"/>
       <c r="AL279" s="8"/>
     </row>
-    <row r="280" spans="1:38" ht="13.2">
+    <row r="280" spans="1:38" ht="13.2" hidden="1">
       <c r="A280" s="9" t="s">
         <v>1315</v>
       </c>
@@ -34400,7 +34484,7 @@
       <c r="AK280" s="8"/>
       <c r="AL280" s="8"/>
     </row>
-    <row r="281" spans="1:38" ht="13.2">
+    <row r="281" spans="1:38" ht="13.2" hidden="1">
       <c r="A281" s="9" t="s">
         <v>1315</v>
       </c>
@@ -34486,7 +34570,7 @@
       <c r="AK281" s="8"/>
       <c r="AL281" s="8"/>
     </row>
-    <row r="282" spans="1:38" ht="13.2">
+    <row r="282" spans="1:38" ht="13.2" hidden="1">
       <c r="A282" s="9" t="s">
         <v>1315</v>
       </c>
@@ -34572,7 +34656,7 @@
       <c r="AK282" s="8"/>
       <c r="AL282" s="8"/>
     </row>
-    <row r="283" spans="1:38" ht="13.2">
+    <row r="283" spans="1:38" ht="13.2" hidden="1">
       <c r="A283" s="9" t="s">
         <v>1315</v>
       </c>
@@ -34658,7 +34742,7 @@
       <c r="AK283" s="8"/>
       <c r="AL283" s="8"/>
     </row>
-    <row r="284" spans="1:38" ht="13.2">
+    <row r="284" spans="1:38" ht="13.2" hidden="1">
       <c r="A284" s="9" t="s">
         <v>1315</v>
       </c>
@@ -34744,7 +34828,7 @@
       <c r="AK284" s="8"/>
       <c r="AL284" s="8"/>
     </row>
-    <row r="285" spans="1:38" ht="13.2">
+    <row r="285" spans="1:38" ht="13.2" hidden="1">
       <c r="A285" s="9" t="s">
         <v>1315</v>
       </c>
@@ -34830,7 +34914,7 @@
       <c r="AK285" s="8"/>
       <c r="AL285" s="8"/>
     </row>
-    <row r="286" spans="1:38" ht="13.2">
+    <row r="286" spans="1:38" ht="13.2" hidden="1">
       <c r="A286" s="9" t="s">
         <v>1315</v>
       </c>
@@ -34916,7 +35000,7 @@
       <c r="AK286" s="8"/>
       <c r="AL286" s="8"/>
     </row>
-    <row r="287" spans="1:38" ht="13.2">
+    <row r="287" spans="1:38" ht="13.2" hidden="1">
       <c r="A287" s="9" t="s">
         <v>1315</v>
       </c>
@@ -35002,7 +35086,7 @@
       <c r="AK287" s="8"/>
       <c r="AL287" s="8"/>
     </row>
-    <row r="288" spans="1:38" ht="13.2">
+    <row r="288" spans="1:38" ht="13.2" hidden="1">
       <c r="A288" s="9" t="s">
         <v>1315</v>
       </c>
@@ -35088,7 +35172,7 @@
       <c r="AK288" s="8"/>
       <c r="AL288" s="8"/>
     </row>
-    <row r="289" spans="1:38" ht="13.2">
+    <row r="289" spans="1:38" ht="13.2" hidden="1">
       <c r="A289" s="9" t="s">
         <v>1315</v>
       </c>
@@ -35174,7 +35258,7 @@
       <c r="AK289" s="8"/>
       <c r="AL289" s="8"/>
     </row>
-    <row r="290" spans="1:38" ht="13.2">
+    <row r="290" spans="1:38" ht="13.2" hidden="1">
       <c r="A290" s="9" t="s">
         <v>1315</v>
       </c>
@@ -35260,7 +35344,7 @@
       <c r="AK290" s="8"/>
       <c r="AL290" s="8"/>
     </row>
-    <row r="291" spans="1:38" ht="13.2">
+    <row r="291" spans="1:38" ht="13.2" hidden="1">
       <c r="A291" s="9" t="s">
         <v>1315</v>
       </c>
@@ -35346,7 +35430,7 @@
       <c r="AK291" s="8"/>
       <c r="AL291" s="8"/>
     </row>
-    <row r="292" spans="1:38" ht="13.2">
+    <row r="292" spans="1:38" ht="13.2" hidden="1">
       <c r="A292" s="9" t="s">
         <v>1315</v>
       </c>
@@ -35432,7 +35516,7 @@
       <c r="AK292" s="8"/>
       <c r="AL292" s="8"/>
     </row>
-    <row r="293" spans="1:38" ht="13.2">
+    <row r="293" spans="1:38" ht="13.2" hidden="1">
       <c r="A293" s="9" t="s">
         <v>1315</v>
       </c>
@@ -35518,7 +35602,7 @@
       <c r="AK293" s="8"/>
       <c r="AL293" s="8"/>
     </row>
-    <row r="294" spans="1:38" ht="13.2">
+    <row r="294" spans="1:38" ht="13.2" hidden="1">
       <c r="A294" s="9" t="s">
         <v>1315</v>
       </c>
@@ -35604,7 +35688,7 @@
       <c r="AK294" s="8"/>
       <c r="AL294" s="8"/>
     </row>
-    <row r="295" spans="1:38" ht="13.2">
+    <row r="295" spans="1:38" ht="13.2" hidden="1">
       <c r="A295" s="9" t="s">
         <v>1315</v>
       </c>
@@ -35690,7 +35774,7 @@
       <c r="AK295" s="8"/>
       <c r="AL295" s="8"/>
     </row>
-    <row r="296" spans="1:38" ht="13.2">
+    <row r="296" spans="1:38" ht="13.2" hidden="1">
       <c r="A296" s="9" t="s">
         <v>1315</v>
       </c>
@@ -35776,7 +35860,7 @@
       <c r="AK296" s="8"/>
       <c r="AL296" s="8"/>
     </row>
-    <row r="297" spans="1:38" ht="13.2">
+    <row r="297" spans="1:38" ht="13.2" hidden="1">
       <c r="A297" s="9" t="s">
         <v>1315</v>
       </c>
@@ -35862,7 +35946,7 @@
       <c r="AK297" s="8"/>
       <c r="AL297" s="8"/>
     </row>
-    <row r="298" spans="1:38" ht="13.2">
+    <row r="298" spans="1:38" ht="13.2" hidden="1">
       <c r="A298" s="9" t="s">
         <v>1315</v>
       </c>
@@ -35948,7 +36032,7 @@
       <c r="AK298" s="8"/>
       <c r="AL298" s="8"/>
     </row>
-    <row r="299" spans="1:38" ht="13.2">
+    <row r="299" spans="1:38" ht="13.2" hidden="1">
       <c r="A299" s="9" t="s">
         <v>1315</v>
       </c>
@@ -36034,7 +36118,7 @@
       <c r="AK299" s="8"/>
       <c r="AL299" s="8"/>
     </row>
-    <row r="300" spans="1:38" ht="13.2">
+    <row r="300" spans="1:38" ht="13.2" hidden="1">
       <c r="A300" s="9" t="s">
         <v>1315</v>
       </c>
@@ -36120,7 +36204,7 @@
       <c r="AK300" s="8"/>
       <c r="AL300" s="8"/>
     </row>
-    <row r="301" spans="1:38" ht="13.2">
+    <row r="301" spans="1:38" ht="13.2" hidden="1">
       <c r="A301" s="9" t="s">
         <v>1315</v>
       </c>
@@ -36206,7 +36290,7 @@
       <c r="AK301" s="8"/>
       <c r="AL301" s="8"/>
     </row>
-    <row r="302" spans="1:38" ht="13.2">
+    <row r="302" spans="1:38" ht="13.2" hidden="1">
       <c r="A302" s="9" t="s">
         <v>1315</v>
       </c>
@@ -36292,7 +36376,7 @@
       <c r="AK302" s="8"/>
       <c r="AL302" s="8"/>
     </row>
-    <row r="303" spans="1:38" ht="13.2">
+    <row r="303" spans="1:38" ht="13.2" hidden="1">
       <c r="A303" s="9" t="s">
         <v>1315</v>
       </c>
@@ -36378,7 +36462,7 @@
       <c r="AK303" s="8"/>
       <c r="AL303" s="8"/>
     </row>
-    <row r="304" spans="1:38" ht="13.2">
+    <row r="304" spans="1:38" ht="13.2" hidden="1">
       <c r="A304" s="9" t="s">
         <v>1315</v>
       </c>
@@ -36464,7 +36548,7 @@
       <c r="AK304" s="8"/>
       <c r="AL304" s="8"/>
     </row>
-    <row r="305" spans="1:38" ht="13.2">
+    <row r="305" spans="1:38" ht="13.2" hidden="1">
       <c r="A305" s="9" t="s">
         <v>1315</v>
       </c>
@@ -36550,7 +36634,7 @@
       <c r="AK305" s="8"/>
       <c r="AL305" s="8"/>
     </row>
-    <row r="306" spans="1:38" ht="13.2">
+    <row r="306" spans="1:38" ht="13.2" hidden="1">
       <c r="A306" s="9" t="s">
         <v>1315</v>
       </c>
@@ -36636,7 +36720,7 @@
       <c r="AK306" s="8"/>
       <c r="AL306" s="8"/>
     </row>
-    <row r="307" spans="1:38" ht="13.2">
+    <row r="307" spans="1:38" ht="13.2" hidden="1">
       <c r="A307" s="9" t="s">
         <v>1315</v>
       </c>
@@ -36722,7 +36806,7 @@
       <c r="AK307" s="8"/>
       <c r="AL307" s="8"/>
     </row>
-    <row r="308" spans="1:38" ht="13.2">
+    <row r="308" spans="1:38" ht="13.2" hidden="1">
       <c r="A308" s="9" t="s">
         <v>1315</v>
       </c>
@@ -36808,7 +36892,7 @@
       <c r="AK308" s="8"/>
       <c r="AL308" s="8"/>
     </row>
-    <row r="309" spans="1:38" ht="13.2">
+    <row r="309" spans="1:38" ht="13.2" hidden="1">
       <c r="A309" s="9" t="s">
         <v>1315</v>
       </c>
@@ -36894,7 +36978,7 @@
       <c r="AK309" s="8"/>
       <c r="AL309" s="8"/>
     </row>
-    <row r="310" spans="1:38" ht="13.2">
+    <row r="310" spans="1:38" ht="13.2" hidden="1">
       <c r="A310" s="9" t="s">
         <v>1315</v>
       </c>
@@ -36980,7 +37064,7 @@
       <c r="AK310" s="8"/>
       <c r="AL310" s="8"/>
     </row>
-    <row r="311" spans="1:38" ht="13.2">
+    <row r="311" spans="1:38" ht="13.2" hidden="1">
       <c r="A311" s="9" t="s">
         <v>1315</v>
       </c>
@@ -37066,7 +37150,7 @@
       <c r="AK311" s="8"/>
       <c r="AL311" s="8"/>
     </row>
-    <row r="312" spans="1:38" ht="13.2">
+    <row r="312" spans="1:38" ht="13.2" hidden="1">
       <c r="A312" s="9" t="s">
         <v>1315</v>
       </c>
@@ -37152,7 +37236,7 @@
       <c r="AK312" s="8"/>
       <c r="AL312" s="8"/>
     </row>
-    <row r="313" spans="1:38" ht="13.2">
+    <row r="313" spans="1:38" ht="13.2" hidden="1">
       <c r="A313" s="9" t="s">
         <v>1315</v>
       </c>
@@ -37238,7 +37322,7 @@
       <c r="AK313" s="8"/>
       <c r="AL313" s="8"/>
     </row>
-    <row r="314" spans="1:38" ht="13.2">
+    <row r="314" spans="1:38" ht="13.2" hidden="1">
       <c r="A314" s="9" t="s">
         <v>1315</v>
       </c>
@@ -37342,7 +37426,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="315" spans="1:38" ht="13.2">
+    <row r="315" spans="1:38" ht="13.2" hidden="1">
       <c r="A315" s="9" t="s">
         <v>1315</v>
       </c>
@@ -37428,7 +37512,7 @@
       <c r="AK315" s="8"/>
       <c r="AL315" s="8"/>
     </row>
-    <row r="316" spans="1:38" ht="13.2">
+    <row r="316" spans="1:38" ht="13.2" hidden="1">
       <c r="A316" s="9" t="s">
         <v>1315</v>
       </c>
@@ -37514,7 +37598,7 @@
       <c r="AK316" s="8"/>
       <c r="AL316" s="8"/>
     </row>
-    <row r="317" spans="1:38" ht="13.2">
+    <row r="317" spans="1:38" ht="13.2" hidden="1">
       <c r="A317" s="9" t="s">
         <v>1315</v>
       </c>
@@ -37600,7 +37684,7 @@
       <c r="AK317" s="8"/>
       <c r="AL317" s="8"/>
     </row>
-    <row r="318" spans="1:38" ht="13.2">
+    <row r="318" spans="1:38" ht="13.2" hidden="1">
       <c r="A318" s="9" t="s">
         <v>1315</v>
       </c>
@@ -37686,7 +37770,7 @@
       <c r="AK318" s="8"/>
       <c r="AL318" s="8"/>
     </row>
-    <row r="319" spans="1:38" ht="13.2">
+    <row r="319" spans="1:38" ht="13.2" hidden="1">
       <c r="A319" s="9" t="s">
         <v>1315</v>
       </c>
@@ -37772,7 +37856,7 @@
       <c r="AK319" s="8"/>
       <c r="AL319" s="8"/>
     </row>
-    <row r="320" spans="1:38" ht="13.2">
+    <row r="320" spans="1:38" ht="13.2" hidden="1">
       <c r="A320" s="9" t="s">
         <v>1315</v>
       </c>
@@ -37858,7 +37942,7 @@
       <c r="AK320" s="8"/>
       <c r="AL320" s="8"/>
     </row>
-    <row r="321" spans="1:38" ht="13.2">
+    <row r="321" spans="1:38" ht="13.2" hidden="1">
       <c r="A321" s="9" t="s">
         <v>1315</v>
       </c>
@@ -37944,7 +38028,7 @@
       <c r="AK321" s="8"/>
       <c r="AL321" s="8"/>
     </row>
-    <row r="322" spans="1:38" ht="13.2">
+    <row r="322" spans="1:38" ht="13.2" hidden="1">
       <c r="A322" s="9" t="s">
         <v>1315</v>
       </c>
@@ -38030,7 +38114,7 @@
       <c r="AK322" s="8"/>
       <c r="AL322" s="8"/>
     </row>
-    <row r="323" spans="1:38" ht="13.2">
+    <row r="323" spans="1:38" ht="13.2" hidden="1">
       <c r="A323" s="9" t="s">
         <v>1315</v>
       </c>
@@ -38116,7 +38200,7 @@
       <c r="AK323" s="8"/>
       <c r="AL323" s="8"/>
     </row>
-    <row r="324" spans="1:38" ht="13.2">
+    <row r="324" spans="1:38" ht="13.2" hidden="1">
       <c r="A324" s="9" t="s">
         <v>1315</v>
       </c>
@@ -38202,7 +38286,7 @@
       <c r="AK324" s="8"/>
       <c r="AL324" s="8"/>
     </row>
-    <row r="325" spans="1:38" ht="13.2">
+    <row r="325" spans="1:38" ht="13.2" hidden="1">
       <c r="A325" s="9" t="s">
         <v>1315</v>
       </c>
@@ -38288,7 +38372,7 @@
       <c r="AK325" s="8"/>
       <c r="AL325" s="8"/>
     </row>
-    <row r="326" spans="1:38" ht="13.2">
+    <row r="326" spans="1:38" ht="13.2" hidden="1">
       <c r="A326" s="9" t="s">
         <v>1315</v>
       </c>
@@ -38374,7 +38458,7 @@
       <c r="AK326" s="8"/>
       <c r="AL326" s="8"/>
     </row>
-    <row r="327" spans="1:38" ht="13.2">
+    <row r="327" spans="1:38" ht="13.2" hidden="1">
       <c r="A327" s="9" t="s">
         <v>1315</v>
       </c>
@@ -38460,7 +38544,7 @@
       <c r="AK327" s="8"/>
       <c r="AL327" s="8"/>
     </row>
-    <row r="328" spans="1:38" ht="13.2">
+    <row r="328" spans="1:38" ht="13.2" hidden="1">
       <c r="A328" s="9" t="s">
         <v>1315</v>
       </c>
@@ -38546,7 +38630,7 @@
       <c r="AK328" s="8"/>
       <c r="AL328" s="8"/>
     </row>
-    <row r="329" spans="1:38" ht="13.2">
+    <row r="329" spans="1:38" ht="13.2" hidden="1">
       <c r="A329" s="9" t="s">
         <v>1315</v>
       </c>
@@ -38632,7 +38716,7 @@
       <c r="AK329" s="8"/>
       <c r="AL329" s="8"/>
     </row>
-    <row r="330" spans="1:38" ht="13.2">
+    <row r="330" spans="1:38" ht="13.2" hidden="1">
       <c r="A330" s="9" t="s">
         <v>1315</v>
       </c>
@@ -38736,7 +38820,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="331" spans="1:38" ht="13.2">
+    <row r="331" spans="1:38" ht="13.2" hidden="1">
       <c r="A331" s="9" t="s">
         <v>1315</v>
       </c>
@@ -38822,7 +38906,7 @@
       <c r="AK331" s="8"/>
       <c r="AL331" s="8"/>
     </row>
-    <row r="332" spans="1:38" ht="13.2">
+    <row r="332" spans="1:38" ht="13.2" hidden="1">
       <c r="A332" s="9" t="s">
         <v>1315</v>
       </c>
@@ -38908,7 +38992,7 @@
       <c r="AK332" s="8"/>
       <c r="AL332" s="8"/>
     </row>
-    <row r="333" spans="1:38" ht="13.2">
+    <row r="333" spans="1:38" ht="13.2" hidden="1">
       <c r="A333" s="9" t="s">
         <v>1315</v>
       </c>
@@ -38994,7 +39078,7 @@
       <c r="AK333" s="8"/>
       <c r="AL333" s="8"/>
     </row>
-    <row r="334" spans="1:38" ht="13.2">
+    <row r="334" spans="1:38" ht="13.2" hidden="1">
       <c r="A334" s="9" t="s">
         <v>1315</v>
       </c>
@@ -39080,7 +39164,7 @@
       <c r="AK334" s="8"/>
       <c r="AL334" s="8"/>
     </row>
-    <row r="335" spans="1:38" ht="13.2">
+    <row r="335" spans="1:38" ht="13.2" hidden="1">
       <c r="A335" s="9" t="s">
         <v>1315</v>
       </c>
@@ -39166,7 +39250,7 @@
       <c r="AK335" s="8"/>
       <c r="AL335" s="8"/>
     </row>
-    <row r="336" spans="1:38" ht="13.2">
+    <row r="336" spans="1:38" ht="13.2" hidden="1">
       <c r="A336" s="9" t="s">
         <v>1315</v>
       </c>
@@ -39252,7 +39336,7 @@
       <c r="AK336" s="8"/>
       <c r="AL336" s="8"/>
     </row>
-    <row r="337" spans="1:38" ht="13.2">
+    <row r="337" spans="1:38" ht="13.2" hidden="1">
       <c r="A337" s="9" t="s">
         <v>1315</v>
       </c>
@@ -39338,7 +39422,7 @@
       <c r="AK337" s="8"/>
       <c r="AL337" s="8"/>
     </row>
-    <row r="338" spans="1:38" ht="13.2">
+    <row r="338" spans="1:38" ht="13.2" hidden="1">
       <c r="A338" s="9" t="s">
         <v>1315</v>
       </c>
@@ -39424,7 +39508,7 @@
       <c r="AK338" s="8"/>
       <c r="AL338" s="8"/>
     </row>
-    <row r="339" spans="1:38" ht="13.2">
+    <row r="339" spans="1:38" ht="13.2" hidden="1">
       <c r="A339" s="9" t="s">
         <v>1315</v>
       </c>
@@ -39510,7 +39594,7 @@
       <c r="AK339" s="8"/>
       <c r="AL339" s="8"/>
     </row>
-    <row r="340" spans="1:38" ht="13.2">
+    <row r="340" spans="1:38" ht="13.2" hidden="1">
       <c r="A340" s="9" t="s">
         <v>1315</v>
       </c>
@@ -39596,7 +39680,7 @@
       <c r="AK340" s="8"/>
       <c r="AL340" s="8"/>
     </row>
-    <row r="341" spans="1:38" ht="13.2">
+    <row r="341" spans="1:38" ht="13.2" hidden="1">
       <c r="A341" s="9" t="s">
         <v>1315</v>
       </c>
@@ -39682,7 +39766,7 @@
       <c r="AK341" s="8"/>
       <c r="AL341" s="8"/>
     </row>
-    <row r="342" spans="1:38" ht="13.2">
+    <row r="342" spans="1:38" ht="13.2" hidden="1">
       <c r="A342" s="9" t="s">
         <v>1315</v>
       </c>
@@ -39768,7 +39852,7 @@
       <c r="AK342" s="8"/>
       <c r="AL342" s="8"/>
     </row>
-    <row r="343" spans="1:38" ht="13.2">
+    <row r="343" spans="1:38" ht="13.2" hidden="1">
       <c r="A343" s="9" t="s">
         <v>1315</v>
       </c>
@@ -39854,7 +39938,7 @@
       <c r="AK343" s="8"/>
       <c r="AL343" s="8"/>
     </row>
-    <row r="344" spans="1:38" ht="13.2">
+    <row r="344" spans="1:38" ht="13.2" hidden="1">
       <c r="A344" s="9" t="s">
         <v>1315</v>
       </c>
@@ -39940,7 +40024,7 @@
       <c r="AK344" s="8"/>
       <c r="AL344" s="8"/>
     </row>
-    <row r="345" spans="1:38" ht="13.2">
+    <row r="345" spans="1:38" ht="13.2" hidden="1">
       <c r="A345" s="9" t="s">
         <v>1315</v>
       </c>
@@ -40026,7 +40110,7 @@
       <c r="AK345" s="8"/>
       <c r="AL345" s="8"/>
     </row>
-    <row r="346" spans="1:38" ht="13.2">
+    <row r="346" spans="1:38" ht="13.2" hidden="1">
       <c r="A346" s="9" t="s">
         <v>1315</v>
       </c>
@@ -40112,7 +40196,7 @@
       <c r="AK346" s="8"/>
       <c r="AL346" s="8"/>
     </row>
-    <row r="347" spans="1:38" ht="13.2">
+    <row r="347" spans="1:38" ht="13.2" hidden="1">
       <c r="A347" s="9" t="s">
         <v>1315</v>
       </c>
@@ -40198,7 +40282,7 @@
       <c r="AK347" s="8"/>
       <c r="AL347" s="8"/>
     </row>
-    <row r="348" spans="1:38" ht="13.2">
+    <row r="348" spans="1:38" ht="13.2" hidden="1">
       <c r="A348" s="9" t="s">
         <v>1315</v>
       </c>
@@ -40284,7 +40368,7 @@
       <c r="AK348" s="8"/>
       <c r="AL348" s="8"/>
     </row>
-    <row r="349" spans="1:38" ht="13.2">
+    <row r="349" spans="1:38" ht="13.2" hidden="1">
       <c r="A349" s="9" t="s">
         <v>1315</v>
       </c>
@@ -40370,7 +40454,7 @@
       <c r="AK349" s="8"/>
       <c r="AL349" s="8"/>
     </row>
-    <row r="350" spans="1:38" ht="13.2">
+    <row r="350" spans="1:38" ht="13.2" hidden="1">
       <c r="A350" s="9" t="s">
         <v>1315</v>
       </c>
@@ -40456,7 +40540,7 @@
       <c r="AK350" s="8"/>
       <c r="AL350" s="8"/>
     </row>
-    <row r="351" spans="1:38" ht="13.2">
+    <row r="351" spans="1:38" ht="13.2" hidden="1">
       <c r="A351" s="9" t="s">
         <v>1315</v>
       </c>
@@ -40542,7 +40626,7 @@
       <c r="AK351" s="8"/>
       <c r="AL351" s="8"/>
     </row>
-    <row r="352" spans="1:38" ht="13.2">
+    <row r="352" spans="1:38" ht="13.2" hidden="1">
       <c r="A352" s="9" t="s">
         <v>1315</v>
       </c>
@@ -40628,7 +40712,7 @@
       <c r="AK352" s="8"/>
       <c r="AL352" s="8"/>
     </row>
-    <row r="353" spans="1:38" ht="13.2">
+    <row r="353" spans="1:38" ht="13.2" hidden="1">
       <c r="A353" s="9" t="s">
         <v>1315</v>
       </c>
@@ -40714,7 +40798,7 @@
       <c r="AK353" s="8"/>
       <c r="AL353" s="8"/>
     </row>
-    <row r="354" spans="1:38" ht="13.2">
+    <row r="354" spans="1:38" ht="13.2" hidden="1">
       <c r="A354" s="9" t="s">
         <v>1315</v>
       </c>
@@ -40800,7 +40884,7 @@
       <c r="AK354" s="8"/>
       <c r="AL354" s="8"/>
     </row>
-    <row r="355" spans="1:38" ht="13.2">
+    <row r="355" spans="1:38" ht="13.2" hidden="1">
       <c r="A355" s="9" t="s">
         <v>1315</v>
       </c>
@@ -40886,7 +40970,7 @@
       <c r="AK355" s="8"/>
       <c r="AL355" s="8"/>
     </row>
-    <row r="356" spans="1:38" ht="13.2">
+    <row r="356" spans="1:38" ht="13.2" hidden="1">
       <c r="A356" s="9" t="s">
         <v>1315</v>
       </c>
@@ -40972,7 +41056,7 @@
       <c r="AK356" s="8"/>
       <c r="AL356" s="8"/>
     </row>
-    <row r="357" spans="1:38" ht="13.2">
+    <row r="357" spans="1:38" ht="13.2" hidden="1">
       <c r="A357" s="9" t="s">
         <v>1315</v>
       </c>
@@ -41058,7 +41142,7 @@
       <c r="AK357" s="8"/>
       <c r="AL357" s="8"/>
     </row>
-    <row r="358" spans="1:38" ht="13.2">
+    <row r="358" spans="1:38" ht="13.2" hidden="1">
       <c r="A358" s="9" t="s">
         <v>1315</v>
       </c>
@@ -41144,7 +41228,7 @@
       <c r="AK358" s="8"/>
       <c r="AL358" s="8"/>
     </row>
-    <row r="359" spans="1:38" ht="13.2">
+    <row r="359" spans="1:38" ht="13.2" hidden="1">
       <c r="A359" s="9" t="s">
         <v>1315</v>
       </c>
@@ -41230,7 +41314,7 @@
       <c r="AK359" s="8"/>
       <c r="AL359" s="8"/>
     </row>
-    <row r="360" spans="1:38" ht="13.2">
+    <row r="360" spans="1:38" ht="13.2" hidden="1">
       <c r="A360" s="9" t="s">
         <v>1315</v>
       </c>
@@ -41316,7 +41400,7 @@
       <c r="AK360" s="8"/>
       <c r="AL360" s="8"/>
     </row>
-    <row r="361" spans="1:38" ht="13.2">
+    <row r="361" spans="1:38" ht="13.2" hidden="1">
       <c r="A361" s="9" t="s">
         <v>1315</v>
       </c>
@@ -41402,7 +41486,7 @@
       <c r="AK361" s="8"/>
       <c r="AL361" s="8"/>
     </row>
-    <row r="362" spans="1:38" ht="13.2">
+    <row r="362" spans="1:38" ht="13.2" hidden="1">
       <c r="A362" s="9" t="s">
         <v>1315</v>
       </c>
@@ -41506,7 +41590,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="363" spans="1:38" ht="13.2">
+    <row r="363" spans="1:38" ht="13.2" hidden="1">
       <c r="A363" s="9" t="s">
         <v>1315</v>
       </c>
@@ -41608,7 +41692,7 @@
       </c>
       <c r="AL363" s="8"/>
     </row>
-    <row r="364" spans="1:38" ht="13.2">
+    <row r="364" spans="1:38" ht="13.2" hidden="1">
       <c r="A364" s="9" t="s">
         <v>1315</v>
       </c>
@@ -41694,7 +41778,7 @@
       <c r="AK364" s="8"/>
       <c r="AL364" s="8"/>
     </row>
-    <row r="365" spans="1:38" ht="13.2">
+    <row r="365" spans="1:38" ht="13.2" hidden="1">
       <c r="A365" s="9" t="s">
         <v>1315</v>
       </c>
@@ -41798,7 +41882,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="366" spans="1:38" ht="13.2">
+    <row r="366" spans="1:38" ht="13.2" hidden="1">
       <c r="A366" s="9" t="s">
         <v>1315</v>
       </c>
@@ -41902,7 +41986,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="367" spans="1:38" ht="13.2">
+    <row r="367" spans="1:38" ht="13.2" hidden="1">
       <c r="A367" s="9" t="s">
         <v>1315</v>
       </c>
@@ -42006,7 +42090,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="368" spans="1:38" ht="13.2">
+    <row r="368" spans="1:38" ht="13.2" hidden="1">
       <c r="A368" s="9" t="s">
         <v>1315</v>
       </c>
@@ -42102,7 +42186,7 @@
       </c>
       <c r="AL368" s="8"/>
     </row>
-    <row r="369" spans="1:38" ht="13.2">
+    <row r="369" spans="1:38" ht="13.2" hidden="1">
       <c r="A369" s="9" t="s">
         <v>1315</v>
       </c>
@@ -42188,7 +42272,7 @@
       <c r="AK369" s="8"/>
       <c r="AL369" s="8"/>
     </row>
-    <row r="370" spans="1:38" ht="13.2">
+    <row r="370" spans="1:38" ht="13.2" hidden="1">
       <c r="A370" s="9" t="s">
         <v>1315</v>
       </c>
@@ -42274,7 +42358,7 @@
       <c r="AK370" s="8"/>
       <c r="AL370" s="8"/>
     </row>
-    <row r="371" spans="1:38" ht="13.2">
+    <row r="371" spans="1:38" ht="13.2" hidden="1">
       <c r="A371" s="9" t="s">
         <v>1315</v>
       </c>
@@ -42360,7 +42444,7 @@
       <c r="AK371" s="8"/>
       <c r="AL371" s="8"/>
     </row>
-    <row r="372" spans="1:38" ht="13.2">
+    <row r="372" spans="1:38" ht="13.2" hidden="1">
       <c r="A372" s="9" t="s">
         <v>1315</v>
       </c>
@@ -42446,7 +42530,7 @@
       <c r="AK372" s="8"/>
       <c r="AL372" s="8"/>
     </row>
-    <row r="373" spans="1:38" ht="13.2">
+    <row r="373" spans="1:38" ht="13.2" hidden="1">
       <c r="A373" s="9" t="s">
         <v>1315</v>
       </c>
@@ -42548,7 +42632,7 @@
       </c>
       <c r="AL373" s="8"/>
     </row>
-    <row r="374" spans="1:38" ht="13.2">
+    <row r="374" spans="1:38" ht="13.2" hidden="1">
       <c r="A374" s="9" t="s">
         <v>1315</v>
       </c>
@@ -42634,7 +42718,7 @@
       <c r="AK374" s="8"/>
       <c r="AL374" s="8"/>
     </row>
-    <row r="375" spans="1:38" ht="13.2">
+    <row r="375" spans="1:38" ht="13.2" hidden="1">
       <c r="A375" s="9" t="s">
         <v>1315</v>
       </c>
@@ -42720,7 +42804,7 @@
       <c r="AK375" s="8"/>
       <c r="AL375" s="8"/>
     </row>
-    <row r="376" spans="1:38" ht="13.2">
+    <row r="376" spans="1:38" ht="13.2" hidden="1">
       <c r="A376" s="9" t="s">
         <v>1315</v>
       </c>
@@ -42806,7 +42890,7 @@
       <c r="AK376" s="8"/>
       <c r="AL376" s="8"/>
     </row>
-    <row r="377" spans="1:38" ht="13.2">
+    <row r="377" spans="1:38" ht="13.2" hidden="1">
       <c r="A377" s="9" t="s">
         <v>1315</v>
       </c>
@@ -42892,7 +42976,7 @@
       <c r="AK377" s="8"/>
       <c r="AL377" s="8"/>
     </row>
-    <row r="378" spans="1:38" ht="13.2">
+    <row r="378" spans="1:38" ht="13.2" hidden="1">
       <c r="A378" s="9" t="s">
         <v>1315</v>
       </c>
@@ -42994,7 +43078,7 @@
       </c>
       <c r="AL378" s="8"/>
     </row>
-    <row r="379" spans="1:38" ht="13.2">
+    <row r="379" spans="1:38" ht="13.2" hidden="1">
       <c r="A379" s="9" t="s">
         <v>1315</v>
       </c>
@@ -43080,7 +43164,7 @@
       <c r="AK379" s="8"/>
       <c r="AL379" s="8"/>
     </row>
-    <row r="380" spans="1:38" ht="13.2">
+    <row r="380" spans="1:38" ht="13.2" hidden="1">
       <c r="A380" s="9" t="s">
         <v>1315</v>
       </c>
@@ -43166,7 +43250,7 @@
       <c r="AK380" s="8"/>
       <c r="AL380" s="8"/>
     </row>
-    <row r="381" spans="1:38" ht="13.2">
+    <row r="381" spans="1:38" ht="13.2" hidden="1">
       <c r="A381" s="9" t="s">
         <v>1315</v>
       </c>
@@ -43252,7 +43336,7 @@
       <c r="AK381" s="8"/>
       <c r="AL381" s="8"/>
     </row>
-    <row r="382" spans="1:38" ht="13.2">
+    <row r="382" spans="1:38" ht="13.2" hidden="1">
       <c r="A382" s="9" t="s">
         <v>1315</v>
       </c>
@@ -43354,7 +43438,7 @@
       </c>
       <c r="AL382" s="8"/>
     </row>
-    <row r="383" spans="1:38" ht="13.2">
+    <row r="383" spans="1:38" ht="13.2" hidden="1">
       <c r="A383" s="9" t="s">
         <v>1315</v>
       </c>
@@ -43440,7 +43524,7 @@
       <c r="AK383" s="8"/>
       <c r="AL383" s="8"/>
     </row>
-    <row r="384" spans="1:38" ht="13.2">
+    <row r="384" spans="1:38" ht="13.2" hidden="1">
       <c r="A384" s="9" t="s">
         <v>1315</v>
       </c>
@@ -43542,7 +43626,7 @@
       </c>
       <c r="AL384" s="8"/>
     </row>
-    <row r="385" spans="1:38" ht="13.2">
+    <row r="385" spans="1:38" ht="13.2" hidden="1">
       <c r="A385" s="9" t="s">
         <v>1315</v>
       </c>
@@ -43628,7 +43712,7 @@
       <c r="AK385" s="8"/>
       <c r="AL385" s="8"/>
     </row>
-    <row r="386" spans="1:38" ht="13.2">
+    <row r="386" spans="1:38" ht="13.2" hidden="1">
       <c r="A386" s="9" t="s">
         <v>1315</v>
       </c>
@@ -43714,18 +43798,224 @@
       <c r="AK386" s="8"/>
       <c r="AL386" s="8"/>
     </row>
+    <row r="399" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AF399">
+        <f>SUMIFS('Standard Report'!Z:Z, 'Standard Report'!AK:AK, "Partial Access", 'Standard Report'!AL:AL, "*cannot reasonably be severed*")</f>
+        <v>114</v>
+      </c>
+      <c r="AG399">
+        <f>COUNTIFS(AK:AK, "Partial Access", AL:AL, "*cannot reasonably be severed*")</f>
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AL386" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A2:AL386" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="37">
+      <filters>
+        <filter val="Refusal - Part X does not apply"/>
+        <filter val="Refusal - Part X does not apply;Refusal - Other"/>
+        <filter val="Refusal - s.312(1)(b) Prohibited by law or court order;Refusal - Part X does not apply;Refusal - Other"/>
+        <filter val="Refusal - s.312(1)(b) Prohibited by law or court order;Refusal - Part X does not apply;Refusal - Requestor's Information cannot reasonably be severed"/>
+        <filter val="Refusal - s.312(1)(b) Prohibited by law or court order;Refusal - s.312(1)(d)(ii) Identifies individual with duty to report;Refusal - Part X does not apply;Refusal - Requestor's Information cannot reasonably be severed;Refusal - Other"/>
+        <filter val="Refusal - s.312(1)(d)(ii) Identifies individual with duty to report;Refusal - Part X does not apply;Refusal - Requestor's Information cannot reasonably be severed"/>
+        <filter val="Refusal - s.312(1)(d)(ii) Identifies individual with duty to report;Refusal - Part X does not apply;Refusal - Requestor's Information cannot reasonably be severed;Refusal - Other"/>
+        <filter val="Refusal - s.312(1)(d)(iii) Identifies information source who reported in confidence;Refusal - Part X does not apply;Refusal - Requestor's Information cannot reasonably be severed"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="225">
-    <mergeCell ref="Y251:Y252"/>
-    <mergeCell ref="Z251:Z252"/>
-    <mergeCell ref="AA251:AA252"/>
-    <mergeCell ref="AB251:AB252"/>
-    <mergeCell ref="AC251:AC252"/>
-    <mergeCell ref="AD251:AD252"/>
-    <mergeCell ref="AJ251:AJ252"/>
-    <mergeCell ref="AK251:AK252"/>
-    <mergeCell ref="AL251:AL252"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="AC32:AC33"/>
+    <mergeCell ref="AD32:AD33"/>
+    <mergeCell ref="AJ32:AJ33"/>
+    <mergeCell ref="AK32:AK33"/>
+    <mergeCell ref="AL32:AL33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="X35:X36"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Z35:Z36"/>
+    <mergeCell ref="AA35:AA36"/>
+    <mergeCell ref="AB35:AB36"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="AJ35:AJ36"/>
+    <mergeCell ref="AK35:AK36"/>
+    <mergeCell ref="AL35:AL36"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="T49:T50"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="V49:V50"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="X49:X50"/>
+    <mergeCell ref="Y49:Y50"/>
+    <mergeCell ref="Z49:Z50"/>
+    <mergeCell ref="AA49:AA50"/>
+    <mergeCell ref="AB49:AB50"/>
+    <mergeCell ref="AC49:AC50"/>
+    <mergeCell ref="AD49:AD50"/>
+    <mergeCell ref="AJ49:AJ50"/>
+    <mergeCell ref="AK49:AK50"/>
+    <mergeCell ref="AL49:AL50"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="R85:R86"/>
+    <mergeCell ref="S85:S86"/>
+    <mergeCell ref="T85:T86"/>
+    <mergeCell ref="U85:U86"/>
+    <mergeCell ref="V85:V86"/>
+    <mergeCell ref="W85:W86"/>
+    <mergeCell ref="X85:X86"/>
+    <mergeCell ref="Y85:Y86"/>
+    <mergeCell ref="Z85:Z86"/>
+    <mergeCell ref="AA85:AA86"/>
+    <mergeCell ref="AB85:AB86"/>
+    <mergeCell ref="AC85:AC86"/>
+    <mergeCell ref="AD85:AD86"/>
+    <mergeCell ref="AJ85:AJ86"/>
+    <mergeCell ref="AK85:AK86"/>
+    <mergeCell ref="AL85:AL86"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="N91:N92"/>
+    <mergeCell ref="O91:O92"/>
+    <mergeCell ref="P91:P92"/>
+    <mergeCell ref="R91:R92"/>
+    <mergeCell ref="S91:S92"/>
+    <mergeCell ref="T91:T92"/>
+    <mergeCell ref="U91:U92"/>
+    <mergeCell ref="V91:V92"/>
+    <mergeCell ref="W91:W92"/>
+    <mergeCell ref="X91:X92"/>
+    <mergeCell ref="Y91:Y92"/>
+    <mergeCell ref="Z91:Z92"/>
+    <mergeCell ref="AA91:AA92"/>
+    <mergeCell ref="AB91:AB92"/>
+    <mergeCell ref="AC91:AC92"/>
+    <mergeCell ref="AD91:AD92"/>
+    <mergeCell ref="AJ91:AJ92"/>
+    <mergeCell ref="AK91:AK92"/>
+    <mergeCell ref="AL91:AL92"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="J110:J111"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="L110:L111"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="N110:N111"/>
+    <mergeCell ref="O110:O111"/>
+    <mergeCell ref="P110:P111"/>
+    <mergeCell ref="R110:R111"/>
+    <mergeCell ref="S110:S111"/>
+    <mergeCell ref="T110:T111"/>
+    <mergeCell ref="U110:U111"/>
+    <mergeCell ref="V110:V111"/>
+    <mergeCell ref="W110:W111"/>
+    <mergeCell ref="X110:X111"/>
+    <mergeCell ref="Y110:Y111"/>
+    <mergeCell ref="Z110:Z111"/>
+    <mergeCell ref="AA110:AA111"/>
+    <mergeCell ref="AB110:AB111"/>
+    <mergeCell ref="AC110:AC111"/>
+    <mergeCell ref="AD110:AD111"/>
+    <mergeCell ref="AJ110:AJ111"/>
+    <mergeCell ref="AK110:AK111"/>
     <mergeCell ref="AL110:AL111"/>
     <mergeCell ref="A251:A252"/>
     <mergeCell ref="B251:B252"/>
@@ -43750,221 +44040,39 @@
     <mergeCell ref="V251:V252"/>
     <mergeCell ref="W251:W252"/>
     <mergeCell ref="X251:X252"/>
-    <mergeCell ref="X110:X111"/>
-    <mergeCell ref="Y110:Y111"/>
-    <mergeCell ref="Z110:Z111"/>
-    <mergeCell ref="AA110:AA111"/>
-    <mergeCell ref="AB110:AB111"/>
-    <mergeCell ref="AC110:AC111"/>
-    <mergeCell ref="AD110:AD111"/>
-    <mergeCell ref="AJ110:AJ111"/>
-    <mergeCell ref="AK110:AK111"/>
-    <mergeCell ref="AK91:AK92"/>
-    <mergeCell ref="AL91:AL92"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="I110:I111"/>
-    <mergeCell ref="J110:J111"/>
-    <mergeCell ref="K110:K111"/>
-    <mergeCell ref="L110:L111"/>
-    <mergeCell ref="M110:M111"/>
-    <mergeCell ref="N110:N111"/>
-    <mergeCell ref="O110:O111"/>
-    <mergeCell ref="P110:P111"/>
-    <mergeCell ref="R110:R111"/>
-    <mergeCell ref="S110:S111"/>
-    <mergeCell ref="T110:T111"/>
-    <mergeCell ref="U110:U111"/>
-    <mergeCell ref="V110:V111"/>
-    <mergeCell ref="W110:W111"/>
-    <mergeCell ref="W91:W92"/>
-    <mergeCell ref="X91:X92"/>
-    <mergeCell ref="Y91:Y92"/>
-    <mergeCell ref="Z91:Z92"/>
-    <mergeCell ref="AA91:AA92"/>
-    <mergeCell ref="AB91:AB92"/>
-    <mergeCell ref="AC91:AC92"/>
-    <mergeCell ref="AD91:AD92"/>
-    <mergeCell ref="AJ91:AJ92"/>
-    <mergeCell ref="AJ85:AJ86"/>
-    <mergeCell ref="AK85:AK86"/>
-    <mergeCell ref="AL85:AL86"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="N91:N92"/>
-    <mergeCell ref="O91:O92"/>
-    <mergeCell ref="P91:P92"/>
-    <mergeCell ref="R91:R92"/>
-    <mergeCell ref="S91:S92"/>
-    <mergeCell ref="T91:T92"/>
-    <mergeCell ref="U91:U92"/>
-    <mergeCell ref="V91:V92"/>
-    <mergeCell ref="V85:V86"/>
-    <mergeCell ref="W85:W86"/>
-    <mergeCell ref="X85:X86"/>
-    <mergeCell ref="Y85:Y86"/>
-    <mergeCell ref="Z85:Z86"/>
-    <mergeCell ref="AA85:AA86"/>
-    <mergeCell ref="AB85:AB86"/>
-    <mergeCell ref="AC85:AC86"/>
-    <mergeCell ref="AD85:AD86"/>
-    <mergeCell ref="AD49:AD50"/>
-    <mergeCell ref="AJ49:AJ50"/>
-    <mergeCell ref="AK49:AK50"/>
-    <mergeCell ref="AL49:AL50"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="R85:R86"/>
-    <mergeCell ref="S85:S86"/>
-    <mergeCell ref="T85:T86"/>
-    <mergeCell ref="U85:U86"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="V49:V50"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="X49:X50"/>
-    <mergeCell ref="Y49:Y50"/>
-    <mergeCell ref="Z49:Z50"/>
-    <mergeCell ref="AA49:AA50"/>
-    <mergeCell ref="AB49:AB50"/>
-    <mergeCell ref="AC49:AC50"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="AJ35:AJ36"/>
-    <mergeCell ref="AK35:AK36"/>
-    <mergeCell ref="AL35:AL36"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="T49:T50"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="X35:X36"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Z35:Z36"/>
-    <mergeCell ref="AA35:AA36"/>
-    <mergeCell ref="AB35:AB36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="AC32:AC33"/>
-    <mergeCell ref="AD32:AD33"/>
-    <mergeCell ref="AJ32:AJ33"/>
-    <mergeCell ref="AK32:AK33"/>
-    <mergeCell ref="AL32:AL33"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y251:Y252"/>
+    <mergeCell ref="Z251:Z252"/>
+    <mergeCell ref="AA251:AA252"/>
+    <mergeCell ref="AB251:AB252"/>
+    <mergeCell ref="AC251:AC252"/>
+    <mergeCell ref="AD251:AD252"/>
+    <mergeCell ref="AJ251:AJ252"/>
+    <mergeCell ref="AK251:AK252"/>
+    <mergeCell ref="AL251:AL252"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="88.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
@@ -43988,14 +44096,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -44029,26 +44137,26 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="36" t="s">
         <v>1809</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6" s="9" t="s">
@@ -44131,26 +44239,26 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="36" t="s">
         <v>1815</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1">
       <c r="A12" s="9" t="s">
@@ -44213,26 +44321,26 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="36" t="s">
         <v>1818</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="9" t="s">
@@ -44295,26 +44403,26 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="36" t="s">
         <v>1822</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="41"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="9" t="s">
@@ -44323,11 +44431,15 @@
       <c r="B22" s="17">
         <v>51</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="17">
+        <v>51</v>
+      </c>
       <c r="D22" s="17">
         <v>50</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="17">
+        <v>50</v>
+      </c>
       <c r="F22" s="10" t="s">
         <v>1812</v>
       </c>
@@ -44340,14 +44452,18 @@
       <c r="A23" s="9" t="s">
         <v>1824</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="42">
         <v>114</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17">
+      <c r="C23" s="19">
+        <v>0</v>
+      </c>
+      <c r="D23" s="42">
         <v>75</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
       <c r="F23" s="10" t="s">
         <v>1812</v>
       </c>
@@ -44363,11 +44479,15 @@
       <c r="B24" s="17">
         <v>0</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="17">
+        <v>0</v>
+      </c>
       <c r="D24" s="17">
         <v>0</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
       <c r="F24" s="10" t="s">
         <v>1812</v>
       </c>
@@ -44380,14 +44500,18 @@
       <c r="A25" s="9" t="s">
         <v>1826</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="42">
         <v>13</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17">
+      <c r="C25" s="19">
+        <v>0</v>
+      </c>
+      <c r="D25" s="42">
         <v>8</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="19">
+        <v>0</v>
+      </c>
       <c r="F25" s="10" t="s">
         <v>1812</v>
       </c>
@@ -44400,14 +44524,18 @@
       <c r="A26" s="9" t="s">
         <v>1827</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="42">
         <v>12</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17">
+      <c r="C26" s="19">
+        <v>4</v>
+      </c>
+      <c r="D26" s="42">
         <v>8</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="19">
+        <v>2</v>
+      </c>
       <c r="F26" s="10" t="s">
         <v>1812</v>
       </c>
@@ -44420,14 +44548,18 @@
       <c r="A27" s="9" t="s">
         <v>1828</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="44">
         <v>114</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17">
+      <c r="C27" s="19">
+        <v>114</v>
+      </c>
+      <c r="D27" s="44">
         <v>75</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="19">
+        <v>75</v>
+      </c>
       <c r="F27" s="10" t="s">
         <v>1812</v>
       </c>
@@ -44443,11 +44575,15 @@
       <c r="B28" s="17">
         <v>0</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>0</v>
+      </c>
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="17">
+        <v>0</v>
+      </c>
       <c r="F28" s="10" t="s">
         <v>1812</v>
       </c>
@@ -44463,11 +44599,15 @@
       <c r="B29" s="17">
         <v>5</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="17">
+        <v>5</v>
+      </c>
       <c r="D29" s="17">
         <v>5</v>
       </c>
-      <c r="E29" s="17"/>
+      <c r="E29" s="17">
+        <v>5</v>
+      </c>
       <c r="F29" s="10" t="s">
         <v>1812</v>
       </c>
@@ -44480,14 +44620,18 @@
       <c r="A30" s="9" t="s">
         <v>1831</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="42">
         <v>9</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17">
+      <c r="C30" s="19">
+        <v>0</v>
+      </c>
+      <c r="D30" s="42">
         <v>6</v>
       </c>
-      <c r="E30" s="17"/>
+      <c r="E30" s="19">
+        <v>0</v>
+      </c>
       <c r="F30" s="10" t="s">
         <v>1812</v>
       </c>
@@ -44500,14 +44644,18 @@
       <c r="A31" s="9" t="s">
         <v>1832</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="42">
         <v>5</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17">
+      <c r="C31" s="19">
         <v>4</v>
       </c>
-      <c r="E31" s="17"/>
+      <c r="D31" s="42">
+        <v>4</v>
+      </c>
+      <c r="E31" s="19">
+        <v>3</v>
+      </c>
       <c r="F31" s="10" t="s">
         <v>1812</v>
       </c>
@@ -44523,11 +44671,15 @@
       <c r="B32" s="17">
         <v>0</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="17">
+        <v>0</v>
+      </c>
       <c r="D32" s="17">
         <v>0</v>
       </c>
-      <c r="E32" s="17"/>
+      <c r="E32" s="17">
+        <v>0</v>
+      </c>
       <c r="F32" s="10" t="s">
         <v>1812</v>
       </c>
@@ -44536,58 +44688,80 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.2">
+    <row r="33" spans="1:9" ht="13.2">
       <c r="A33" s="9" t="s">
         <v>1834</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>1812</v>
       </c>
-      <c r="C33" s="18"/>
+      <c r="C33" s="18">
+        <v>0</v>
+      </c>
       <c r="D33" s="10" t="s">
         <v>1812</v>
       </c>
-      <c r="E33" s="18"/>
+      <c r="E33" s="18">
+        <v>0</v>
+      </c>
       <c r="F33" s="17">
         <v>89</v>
       </c>
-      <c r="G33" s="17"/>
+      <c r="G33" s="17">
+        <v>89</v>
+      </c>
       <c r="H33" s="17">
         <v>62</v>
       </c>
+      <c r="I33" s="43">
+        <v>62</v>
+      </c>
     </row>
-    <row r="34" spans="1:8" ht="13.2">
+    <row r="34" spans="1:9" ht="13.2">
       <c r="A34" s="9" t="s">
         <v>1835</v>
       </c>
       <c r="B34" s="17">
         <v>52</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="17">
+        <v>52</v>
+      </c>
       <c r="D34" s="17">
         <v>20</v>
       </c>
-      <c r="E34" s="17"/>
+      <c r="E34" s="17">
+        <v>20</v>
+      </c>
       <c r="F34" s="17">
         <v>85</v>
       </c>
-      <c r="G34" s="17"/>
+      <c r="G34" s="17">
+        <v>85</v>
+      </c>
       <c r="H34" s="17">
         <v>46</v>
       </c>
+      <c r="I34" s="43">
+        <v>46</v>
+      </c>
     </row>
-    <row r="35" spans="1:8" ht="13.2">
+    <row r="35" spans="1:9" ht="13.2">
       <c r="A35" s="9" t="s">
         <v>1836</v>
       </c>
       <c r="B35" s="17">
         <v>131</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="17">
+        <v>131</v>
+      </c>
       <c r="D35" s="17">
         <v>92</v>
       </c>
-      <c r="E35" s="17"/>
+      <c r="E35" s="17">
+        <v>92</v>
+      </c>
       <c r="F35" s="10" t="s">
         <v>1812</v>
       </c>
@@ -44596,38 +44770,51 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.2">
+    <row r="36" spans="1:9" ht="13.2">
       <c r="A36" s="9" t="s">
         <v>1837</v>
       </c>
       <c r="B36" s="17">
         <v>506</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="17">
+        <v>506</v>
+      </c>
       <c r="D36" s="17">
         <v>343</v>
       </c>
-      <c r="E36" s="17"/>
+      <c r="E36" s="17">
+        <v>343</v>
+      </c>
       <c r="F36" s="17">
         <v>174</v>
       </c>
-      <c r="G36" s="17"/>
+      <c r="G36" s="17">
+        <v>174</v>
+      </c>
       <c r="H36" s="17">
         <v>108</v>
       </c>
+      <c r="I36" s="43">
+        <v>108</v>
+      </c>
     </row>
-    <row r="37" spans="1:8" ht="13.2">
+    <row r="37" spans="1:9" ht="13.2">
       <c r="A37" s="9" t="s">
         <v>1838</v>
       </c>
       <c r="B37" s="17">
         <v>114</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>114</v>
+      </c>
       <c r="D37" s="17">
         <v>75</v>
       </c>
-      <c r="E37" s="17"/>
+      <c r="E37" s="17">
+        <v>75</v>
+      </c>
       <c r="F37" s="10" t="s">
         <v>1812</v>
       </c>
@@ -44636,29 +44823,29 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.2">
-      <c r="A38" s="36"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="38"/>
+    <row r="38" spans="1:9" ht="13.2">
+      <c r="A38" s="39"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="41"/>
     </row>
-    <row r="39" spans="1:8" ht="13.2">
-      <c r="A39" s="39" t="s">
+    <row r="39" spans="1:9" ht="13.2">
+      <c r="A39" s="36" t="s">
         <v>1839</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="41"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
     </row>
-    <row r="40" spans="1:8" ht="13.2">
+    <row r="40" spans="1:9" ht="13.2">
       <c r="A40" s="9" t="s">
         <v>1840</v>
       </c>
@@ -44678,7 +44865,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.2">
+    <row r="41" spans="1:9" ht="13.2">
       <c r="A41" s="9" t="s">
         <v>1841</v>
       </c>
@@ -44698,7 +44885,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.2">
+    <row r="42" spans="1:9" ht="13.2">
       <c r="A42" s="9" t="s">
         <v>1842</v>
       </c>
@@ -44718,7 +44905,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.2">
+    <row r="43" spans="1:9" ht="13.2">
       <c r="A43" s="9" t="s">
         <v>1843</v>
       </c>
@@ -44738,7 +44925,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.2">
+    <row r="44" spans="1:9" ht="13.2">
       <c r="A44" s="9" t="s">
         <v>1844</v>
       </c>
@@ -44758,7 +44945,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.2">
+    <row r="45" spans="1:9" ht="13.2">
       <c r="A45" s="9" t="s">
         <v>1845</v>
       </c>
@@ -44778,7 +44965,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.2">
+    <row r="46" spans="1:9" ht="13.2">
       <c r="A46" s="9" t="s">
         <v>1846</v>
       </c>
@@ -44798,7 +44985,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.2">
+    <row r="47" spans="1:9" ht="13.2">
       <c r="A47" s="9" t="s">
         <v>1847</v>
       </c>
@@ -44818,27 +45005,27 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.2">
-      <c r="A48" s="36"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="38"/>
+    <row r="48" spans="1:9" ht="13.2">
+      <c r="A48" s="39"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="41"/>
     </row>
     <row r="49" spans="1:8" ht="13.2">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="36" t="s">
         <v>1848</v>
       </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="41"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:8" ht="13.2">
       <c r="A50" s="9" t="s">
@@ -44908,6 +45095,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="A48:H48"/>
     <mergeCell ref="A49:H49"/>
@@ -44916,13 +45108,9 @@
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CX034 - IPC - Part X Access Requests Completed - Diane_SJ200925.xlsx
+++ b/CX034 - IPC - Part X Access Requests Completed - Diane_SJ200925.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\college_work\Coop_1\ops_work\cx034\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939DF160-B344-4024-91E4-A6D6CBE38724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB523A7C-A671-4A77-A197-08F8B96F5658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6143,6 +6143,15 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6159,10 +6168,22 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -6170,37 +6191,16 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6517,28 +6517,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" ht="13.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" ht="13.2">
       <c r="A4" s="3" t="s">
@@ -6555,18 +6555,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="8" spans="1:4" ht="13.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
@@ -6591,8 +6591,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AL399"/>
   <sheetViews>
-    <sheetView topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AL257" sqref="A1:AL399"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="Z62" sqref="Z62:Z257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
@@ -6633,46 +6633,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
     </row>
     <row r="2" spans="1:38" ht="12.75" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -9744,10 +9744,10 @@
       <c r="M32" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="N32" s="27">
+      <c r="N32" s="34">
         <v>45377</v>
       </c>
-      <c r="O32" s="34">
+      <c r="O32" s="35">
         <v>1</v>
       </c>
       <c r="P32" s="31" t="s">
@@ -9766,31 +9766,31 @@
       <c r="U32" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="V32" s="27">
+      <c r="V32" s="34">
         <v>45716</v>
       </c>
-      <c r="W32" s="27">
+      <c r="W32" s="34">
         <v>45716</v>
       </c>
       <c r="X32" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="Y32" s="27">
+      <c r="Y32" s="34">
         <v>45716</v>
       </c>
-      <c r="Z32" s="29">
+      <c r="Z32" s="36">
         <v>1</v>
       </c>
-      <c r="AA32" s="30">
+      <c r="AA32" s="37">
         <v>45746</v>
       </c>
       <c r="AB32" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="AC32" s="27">
+      <c r="AC32" s="34">
         <v>45408</v>
       </c>
-      <c r="AD32" s="27">
+      <c r="AD32" s="34">
         <v>45789</v>
       </c>
       <c r="AE32" s="15"/>
@@ -9798,55 +9798,55 @@
       <c r="AG32" s="15"/>
       <c r="AH32" s="15"/>
       <c r="AI32" s="15"/>
-      <c r="AJ32" s="30">
+      <c r="AJ32" s="37">
         <v>45789</v>
       </c>
       <c r="AK32" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="AL32" s="32" t="s">
+      <c r="AL32" s="38" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:38" ht="13.2" hidden="1">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
       <c r="Q33" s="8"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="32"/>
       <c r="AE33" s="8"/>
       <c r="AF33" s="8"/>
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="8"/>
-      <c r="AJ33" s="28"/>
-      <c r="AK33" s="28"/>
-      <c r="AL33" s="28"/>
+      <c r="AJ33" s="32"/>
+      <c r="AK33" s="32"/>
+      <c r="AL33" s="32"/>
     </row>
     <row r="34" spans="1:38" ht="13.2" hidden="1">
       <c r="A34" s="9" t="s">
@@ -9990,10 +9990,10 @@
       <c r="M35" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="N35" s="27">
+      <c r="N35" s="34">
         <v>45547</v>
       </c>
-      <c r="O35" s="34">
+      <c r="O35" s="35">
         <v>1</v>
       </c>
       <c r="P35" s="31" t="s">
@@ -10012,31 +10012,31 @@
       <c r="U35" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="V35" s="27">
+      <c r="V35" s="34">
         <v>45573</v>
       </c>
-      <c r="W35" s="27">
+      <c r="W35" s="34">
         <v>45573</v>
       </c>
       <c r="X35" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="Y35" s="27">
+      <c r="Y35" s="34">
         <v>45573</v>
       </c>
-      <c r="Z35" s="29">
+      <c r="Z35" s="36">
         <v>1</v>
       </c>
-      <c r="AA35" s="30">
+      <c r="AA35" s="37">
         <v>45603</v>
       </c>
       <c r="AB35" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="AC35" s="27">
+      <c r="AC35" s="34">
         <v>45577</v>
       </c>
-      <c r="AD35" s="27">
+      <c r="AD35" s="34">
         <v>45575</v>
       </c>
       <c r="AE35" s="15"/>
@@ -10044,55 +10044,55 @@
       <c r="AG35" s="15"/>
       <c r="AH35" s="15"/>
       <c r="AI35" s="15"/>
-      <c r="AJ35" s="30">
+      <c r="AJ35" s="37">
         <v>45575</v>
       </c>
       <c r="AK35" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="AL35" s="32" t="s">
+      <c r="AL35" s="38" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:38" ht="13.2" hidden="1">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
       <c r="Q36" s="8"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="32"/>
       <c r="AE36" s="8"/>
       <c r="AF36" s="8"/>
       <c r="AG36" s="8"/>
       <c r="AH36" s="8"/>
       <c r="AI36" s="8"/>
-      <c r="AJ36" s="28"/>
-      <c r="AK36" s="28"/>
-      <c r="AL36" s="28"/>
+      <c r="AJ36" s="32"/>
+      <c r="AK36" s="32"/>
+      <c r="AL36" s="32"/>
     </row>
     <row r="37" spans="1:38" ht="13.2" hidden="1">
       <c r="A37" s="9" t="s">
@@ -11362,10 +11362,10 @@
       <c r="M49" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="N49" s="27">
+      <c r="N49" s="34">
         <v>45713</v>
       </c>
-      <c r="O49" s="34">
+      <c r="O49" s="35">
         <v>1</v>
       </c>
       <c r="P49" s="31" t="s">
@@ -11384,31 +11384,31 @@
       <c r="U49" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="V49" s="27">
+      <c r="V49" s="34">
         <v>45721</v>
       </c>
-      <c r="W49" s="27">
+      <c r="W49" s="34">
         <v>45721</v>
       </c>
       <c r="X49" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="Y49" s="27">
+      <c r="Y49" s="34">
         <v>45721</v>
       </c>
-      <c r="Z49" s="29">
+      <c r="Z49" s="36">
         <v>1</v>
       </c>
-      <c r="AA49" s="30">
+      <c r="AA49" s="37">
         <v>45751</v>
       </c>
       <c r="AB49" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="AC49" s="27">
+      <c r="AC49" s="34">
         <v>45715</v>
       </c>
-      <c r="AD49" s="27">
+      <c r="AD49" s="34">
         <v>45800</v>
       </c>
       <c r="AE49" s="15"/>
@@ -11416,55 +11416,55 @@
       <c r="AG49" s="15"/>
       <c r="AH49" s="15"/>
       <c r="AI49" s="15"/>
-      <c r="AJ49" s="30">
+      <c r="AJ49" s="37">
         <v>45800</v>
       </c>
       <c r="AK49" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="AL49" s="32" t="s">
+      <c r="AL49" s="38" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="13.2" hidden="1">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
       <c r="Q50" s="8"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="28"/>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="28"/>
-      <c r="AC50" s="28"/>
-      <c r="AD50" s="28"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="32"/>
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="32"/>
+      <c r="AC50" s="32"/>
+      <c r="AD50" s="32"/>
       <c r="AE50" s="8"/>
       <c r="AF50" s="8"/>
       <c r="AG50" s="8"/>
       <c r="AH50" s="8"/>
       <c r="AI50" s="8"/>
-      <c r="AJ50" s="28"/>
-      <c r="AK50" s="28"/>
-      <c r="AL50" s="28"/>
+      <c r="AJ50" s="32"/>
+      <c r="AK50" s="32"/>
+      <c r="AL50" s="32"/>
     </row>
     <row r="51" spans="1:38" ht="13.2" hidden="1">
       <c r="A51" s="9" t="s">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="AL53" s="8"/>
     </row>
-    <row r="54" spans="1:38" ht="13.2">
+    <row r="54" spans="1:38" ht="13.2" hidden="1">
       <c r="A54" s="9" t="s">
         <v>65</v>
       </c>
@@ -15004,10 +15004,10 @@
       <c r="M85" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="N85" s="27">
+      <c r="N85" s="34">
         <v>45471</v>
       </c>
-      <c r="O85" s="34">
+      <c r="O85" s="35">
         <v>1</v>
       </c>
       <c r="P85" s="31" t="s">
@@ -15026,31 +15026,31 @@
       <c r="U85" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="V85" s="27">
+      <c r="V85" s="34">
         <v>45727</v>
       </c>
-      <c r="W85" s="27">
+      <c r="W85" s="34">
         <v>45727</v>
       </c>
       <c r="X85" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="Y85" s="27">
+      <c r="Y85" s="34">
         <v>45727</v>
       </c>
-      <c r="Z85" s="29">
+      <c r="Z85" s="36">
         <v>1</v>
       </c>
-      <c r="AA85" s="30">
+      <c r="AA85" s="37">
         <v>45757</v>
       </c>
       <c r="AB85" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="AC85" s="27">
+      <c r="AC85" s="34">
         <v>45501</v>
       </c>
-      <c r="AD85" s="27">
+      <c r="AD85" s="34">
         <v>45743</v>
       </c>
       <c r="AE85" s="15"/>
@@ -15058,57 +15058,57 @@
       <c r="AG85" s="15"/>
       <c r="AH85" s="15"/>
       <c r="AI85" s="15"/>
-      <c r="AJ85" s="30">
+      <c r="AJ85" s="37">
         <v>45743</v>
       </c>
       <c r="AK85" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="AL85" s="32" t="s">
+      <c r="AL85" s="38" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="86" spans="1:38" ht="13.2" hidden="1">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="28"/>
-      <c r="M86" s="28"/>
-      <c r="N86" s="28"/>
-      <c r="O86" s="28"/>
-      <c r="P86" s="28"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="32"/>
+      <c r="M86" s="32"/>
+      <c r="N86" s="32"/>
+      <c r="O86" s="32"/>
+      <c r="P86" s="32"/>
       <c r="Q86" s="8"/>
-      <c r="R86" s="28"/>
-      <c r="S86" s="28"/>
-      <c r="T86" s="28"/>
-      <c r="U86" s="28"/>
-      <c r="V86" s="28"/>
-      <c r="W86" s="28"/>
-      <c r="X86" s="28"/>
-      <c r="Y86" s="28"/>
-      <c r="Z86" s="28"/>
-      <c r="AA86" s="28"/>
-      <c r="AB86" s="28"/>
-      <c r="AC86" s="28"/>
-      <c r="AD86" s="28"/>
+      <c r="R86" s="32"/>
+      <c r="S86" s="32"/>
+      <c r="T86" s="32"/>
+      <c r="U86" s="32"/>
+      <c r="V86" s="32"/>
+      <c r="W86" s="32"/>
+      <c r="X86" s="32"/>
+      <c r="Y86" s="32"/>
+      <c r="Z86" s="32"/>
+      <c r="AA86" s="32"/>
+      <c r="AB86" s="32"/>
+      <c r="AC86" s="32"/>
+      <c r="AD86" s="32"/>
       <c r="AE86" s="8"/>
       <c r="AF86" s="8"/>
       <c r="AG86" s="8"/>
       <c r="AH86" s="8"/>
       <c r="AI86" s="8"/>
-      <c r="AJ86" s="28"/>
-      <c r="AK86" s="28"/>
-      <c r="AL86" s="28"/>
+      <c r="AJ86" s="32"/>
+      <c r="AK86" s="32"/>
+      <c r="AL86" s="32"/>
     </row>
-    <row r="87" spans="1:38" ht="13.2">
+    <row r="87" spans="1:38" ht="13.2" hidden="1">
       <c r="A87" s="9" t="s">
         <v>65</v>
       </c>
@@ -15520,7 +15520,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:38" ht="13.2">
+    <row r="91" spans="1:38" ht="13.2" hidden="1">
       <c r="A91" s="31" t="s">
         <v>65</v>
       </c>
@@ -15560,10 +15560,10 @@
       <c r="M91" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="N91" s="27">
+      <c r="N91" s="34">
         <v>45488</v>
       </c>
-      <c r="O91" s="34">
+      <c r="O91" s="35">
         <v>1</v>
       </c>
       <c r="P91" s="31" t="s">
@@ -15582,31 +15582,31 @@
       <c r="U91" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="V91" s="27">
+      <c r="V91" s="34">
         <v>45558</v>
       </c>
-      <c r="W91" s="27">
+      <c r="W91" s="34">
         <v>45558</v>
       </c>
       <c r="X91" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="Y91" s="27">
+      <c r="Y91" s="34">
         <v>45558</v>
       </c>
-      <c r="Z91" s="29">
+      <c r="Z91" s="36">
         <v>1</v>
       </c>
-      <c r="AA91" s="30">
+      <c r="AA91" s="37">
         <v>45588</v>
       </c>
       <c r="AB91" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="AC91" s="27">
+      <c r="AC91" s="34">
         <v>45588</v>
       </c>
-      <c r="AD91" s="27">
+      <c r="AD91" s="34">
         <v>45595</v>
       </c>
       <c r="AE91" s="15"/>
@@ -15614,57 +15614,57 @@
       <c r="AG91" s="15"/>
       <c r="AH91" s="15"/>
       <c r="AI91" s="15"/>
-      <c r="AJ91" s="30">
+      <c r="AJ91" s="37">
         <v>45595</v>
       </c>
       <c r="AK91" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="AL91" s="32" t="s">
+      <c r="AL91" s="38" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="92" spans="1:38" ht="13.2" hidden="1">
-      <c r="A92" s="28"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="28"/>
-      <c r="M92" s="28"/>
-      <c r="N92" s="28"/>
-      <c r="O92" s="28"/>
-      <c r="P92" s="28"/>
+      <c r="A92" s="32"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="32"/>
+      <c r="N92" s="32"/>
+      <c r="O92" s="32"/>
+      <c r="P92" s="32"/>
       <c r="Q92" s="8"/>
-      <c r="R92" s="28"/>
-      <c r="S92" s="28"/>
-      <c r="T92" s="28"/>
-      <c r="U92" s="28"/>
-      <c r="V92" s="28"/>
-      <c r="W92" s="28"/>
-      <c r="X92" s="28"/>
-      <c r="Y92" s="28"/>
-      <c r="Z92" s="28"/>
-      <c r="AA92" s="28"/>
-      <c r="AB92" s="28"/>
-      <c r="AC92" s="28"/>
-      <c r="AD92" s="28"/>
+      <c r="R92" s="32"/>
+      <c r="S92" s="32"/>
+      <c r="T92" s="32"/>
+      <c r="U92" s="32"/>
+      <c r="V92" s="32"/>
+      <c r="W92" s="32"/>
+      <c r="X92" s="32"/>
+      <c r="Y92" s="32"/>
+      <c r="Z92" s="32"/>
+      <c r="AA92" s="32"/>
+      <c r="AB92" s="32"/>
+      <c r="AC92" s="32"/>
+      <c r="AD92" s="32"/>
       <c r="AE92" s="8"/>
       <c r="AF92" s="8"/>
       <c r="AG92" s="8"/>
       <c r="AH92" s="8"/>
       <c r="AI92" s="8"/>
-      <c r="AJ92" s="28"/>
-      <c r="AK92" s="28"/>
-      <c r="AL92" s="28"/>
+      <c r="AJ92" s="32"/>
+      <c r="AK92" s="32"/>
+      <c r="AL92" s="32"/>
     </row>
-    <row r="93" spans="1:38" ht="13.2">
+    <row r="93" spans="1:38" ht="13.2" hidden="1">
       <c r="A93" s="9" t="s">
         <v>65</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="94" spans="1:38" ht="13.2">
+    <row r="94" spans="1:38" ht="13.2" hidden="1">
       <c r="A94" s="9" t="s">
         <v>65</v>
       </c>
@@ -17442,10 +17442,10 @@
       <c r="M110" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="N110" s="27">
+      <c r="N110" s="34">
         <v>45671</v>
       </c>
-      <c r="O110" s="34">
+      <c r="O110" s="35">
         <v>1</v>
       </c>
       <c r="P110" s="31" t="s">
@@ -17464,31 +17464,31 @@
       <c r="U110" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="V110" s="27">
+      <c r="V110" s="34">
         <v>45685</v>
       </c>
-      <c r="W110" s="27">
+      <c r="W110" s="34">
         <v>45685</v>
       </c>
       <c r="X110" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="Y110" s="27">
+      <c r="Y110" s="34">
         <v>45685</v>
       </c>
-      <c r="Z110" s="29">
+      <c r="Z110" s="36">
         <v>1</v>
       </c>
-      <c r="AA110" s="30">
+      <c r="AA110" s="37">
         <v>45715</v>
       </c>
       <c r="AB110" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="AC110" s="27">
+      <c r="AC110" s="34">
         <v>45702</v>
       </c>
-      <c r="AD110" s="27">
+      <c r="AD110" s="34">
         <v>45744</v>
       </c>
       <c r="AE110" s="15"/>
@@ -17496,55 +17496,55 @@
       <c r="AG110" s="15"/>
       <c r="AH110" s="15"/>
       <c r="AI110" s="15"/>
-      <c r="AJ110" s="30">
+      <c r="AJ110" s="37">
         <v>45744</v>
       </c>
       <c r="AK110" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="AL110" s="32" t="s">
+      <c r="AL110" s="38" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="111" spans="1:38" ht="13.2" hidden="1">
-      <c r="A111" s="28"/>
-      <c r="B111" s="28"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="28"/>
-      <c r="J111" s="28"/>
-      <c r="K111" s="28"/>
-      <c r="L111" s="28"/>
-      <c r="M111" s="28"/>
-      <c r="N111" s="28"/>
-      <c r="O111" s="28"/>
-      <c r="P111" s="28"/>
+      <c r="A111" s="32"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="32"/>
+      <c r="K111" s="32"/>
+      <c r="L111" s="32"/>
+      <c r="M111" s="32"/>
+      <c r="N111" s="32"/>
+      <c r="O111" s="32"/>
+      <c r="P111" s="32"/>
       <c r="Q111" s="8"/>
-      <c r="R111" s="28"/>
-      <c r="S111" s="28"/>
-      <c r="T111" s="28"/>
-      <c r="U111" s="28"/>
-      <c r="V111" s="28"/>
-      <c r="W111" s="28"/>
-      <c r="X111" s="28"/>
-      <c r="Y111" s="28"/>
-      <c r="Z111" s="28"/>
-      <c r="AA111" s="28"/>
-      <c r="AB111" s="28"/>
-      <c r="AC111" s="28"/>
-      <c r="AD111" s="28"/>
+      <c r="R111" s="32"/>
+      <c r="S111" s="32"/>
+      <c r="T111" s="32"/>
+      <c r="U111" s="32"/>
+      <c r="V111" s="32"/>
+      <c r="W111" s="32"/>
+      <c r="X111" s="32"/>
+      <c r="Y111" s="32"/>
+      <c r="Z111" s="32"/>
+      <c r="AA111" s="32"/>
+      <c r="AB111" s="32"/>
+      <c r="AC111" s="32"/>
+      <c r="AD111" s="32"/>
       <c r="AE111" s="8"/>
       <c r="AF111" s="8"/>
       <c r="AG111" s="8"/>
       <c r="AH111" s="8"/>
       <c r="AI111" s="8"/>
-      <c r="AJ111" s="28"/>
-      <c r="AK111" s="28"/>
-      <c r="AL111" s="28"/>
+      <c r="AJ111" s="32"/>
+      <c r="AK111" s="32"/>
+      <c r="AL111" s="32"/>
     </row>
     <row r="112" spans="1:38" ht="13.2" hidden="1">
       <c r="A112" s="9" t="s">
@@ -31598,7 +31598,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="249" spans="1:38" ht="13.2">
+    <row r="249" spans="1:38" ht="13.2" hidden="1">
       <c r="A249" s="9" t="s">
         <v>65</v>
       </c>
@@ -31846,10 +31846,10 @@
       <c r="M251" s="33" t="s">
         <v>1278</v>
       </c>
-      <c r="N251" s="27">
+      <c r="N251" s="34">
         <v>45625</v>
       </c>
-      <c r="O251" s="34">
+      <c r="O251" s="35">
         <v>4</v>
       </c>
       <c r="P251" s="31" t="s">
@@ -31868,31 +31868,31 @@
       <c r="U251" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="V251" s="27">
+      <c r="V251" s="34">
         <v>45678</v>
       </c>
-      <c r="W251" s="27">
+      <c r="W251" s="34">
         <v>45678</v>
       </c>
       <c r="X251" s="33" t="s">
         <v>1279</v>
       </c>
-      <c r="Y251" s="27">
+      <c r="Y251" s="34">
         <v>45678</v>
       </c>
-      <c r="Z251" s="29">
+      <c r="Z251" s="36">
         <v>4</v>
       </c>
-      <c r="AA251" s="30">
+      <c r="AA251" s="37">
         <v>45708</v>
       </c>
       <c r="AB251" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="AC251" s="27">
+      <c r="AC251" s="34">
         <v>45708</v>
       </c>
-      <c r="AD251" s="27">
+      <c r="AD251" s="34">
         <v>45692</v>
       </c>
       <c r="AE251" s="15"/>
@@ -31900,55 +31900,55 @@
       <c r="AG251" s="15"/>
       <c r="AH251" s="15"/>
       <c r="AI251" s="15"/>
-      <c r="AJ251" s="30">
+      <c r="AJ251" s="37">
         <v>45692</v>
       </c>
       <c r="AK251" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="AL251" s="32" t="s">
+      <c r="AL251" s="38" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="252" spans="1:38" ht="13.2" hidden="1">
-      <c r="A252" s="28"/>
-      <c r="B252" s="28"/>
-      <c r="C252" s="28"/>
-      <c r="D252" s="28"/>
-      <c r="E252" s="28"/>
-      <c r="F252" s="28"/>
-      <c r="G252" s="28"/>
-      <c r="H252" s="28"/>
-      <c r="I252" s="28"/>
-      <c r="J252" s="28"/>
-      <c r="K252" s="28"/>
-      <c r="L252" s="28"/>
-      <c r="M252" s="28"/>
-      <c r="N252" s="28"/>
-      <c r="O252" s="28"/>
-      <c r="P252" s="28"/>
+      <c r="A252" s="32"/>
+      <c r="B252" s="32"/>
+      <c r="C252" s="32"/>
+      <c r="D252" s="32"/>
+      <c r="E252" s="32"/>
+      <c r="F252" s="32"/>
+      <c r="G252" s="32"/>
+      <c r="H252" s="32"/>
+      <c r="I252" s="32"/>
+      <c r="J252" s="32"/>
+      <c r="K252" s="32"/>
+      <c r="L252" s="32"/>
+      <c r="M252" s="32"/>
+      <c r="N252" s="32"/>
+      <c r="O252" s="32"/>
+      <c r="P252" s="32"/>
       <c r="Q252" s="8"/>
-      <c r="R252" s="28"/>
-      <c r="S252" s="28"/>
-      <c r="T252" s="28"/>
-      <c r="U252" s="28"/>
-      <c r="V252" s="28"/>
-      <c r="W252" s="28"/>
-      <c r="X252" s="28"/>
-      <c r="Y252" s="28"/>
-      <c r="Z252" s="28"/>
-      <c r="AA252" s="28"/>
-      <c r="AB252" s="28"/>
-      <c r="AC252" s="28"/>
-      <c r="AD252" s="28"/>
+      <c r="R252" s="32"/>
+      <c r="S252" s="32"/>
+      <c r="T252" s="32"/>
+      <c r="U252" s="32"/>
+      <c r="V252" s="32"/>
+      <c r="W252" s="32"/>
+      <c r="X252" s="32"/>
+      <c r="Y252" s="32"/>
+      <c r="Z252" s="32"/>
+      <c r="AA252" s="32"/>
+      <c r="AB252" s="32"/>
+      <c r="AC252" s="32"/>
+      <c r="AD252" s="32"/>
       <c r="AE252" s="8"/>
       <c r="AF252" s="8"/>
       <c r="AG252" s="8"/>
       <c r="AH252" s="8"/>
       <c r="AI252" s="8"/>
-      <c r="AJ252" s="28"/>
-      <c r="AK252" s="28"/>
-      <c r="AL252" s="28"/>
+      <c r="AJ252" s="32"/>
+      <c r="AK252" s="32"/>
+      <c r="AL252" s="32"/>
     </row>
     <row r="253" spans="1:38" ht="13.2" hidden="1">
       <c r="A253" s="9" t="s">
@@ -32054,7 +32054,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="254" spans="1:38" ht="13.2">
+    <row r="254" spans="1:38" ht="13.2" hidden="1">
       <c r="A254" s="9" t="s">
         <v>65</v>
       </c>
@@ -32574,7 +32574,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="259" spans="1:38" ht="13.2">
+    <row r="259" spans="1:38" ht="13.2" hidden="1">
       <c r="A259" s="9" t="s">
         <v>65</v>
       </c>
@@ -43810,20 +43810,220 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:AL386" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="36">
+      <filters>
+        <filter val="No Information Released"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="37">
       <filters>
         <filter val="Refusal - Part X does not apply"/>
         <filter val="Refusal - Part X does not apply;Refusal - Other"/>
-        <filter val="Refusal - s.312(1)(b) Prohibited by law or court order;Refusal - Part X does not apply;Refusal - Other"/>
-        <filter val="Refusal - s.312(1)(b) Prohibited by law or court order;Refusal - Part X does not apply;Refusal - Requestor's Information cannot reasonably be severed"/>
-        <filter val="Refusal - s.312(1)(b) Prohibited by law or court order;Refusal - s.312(1)(d)(ii) Identifies individual with duty to report;Refusal - Part X does not apply;Refusal - Requestor's Information cannot reasonably be severed;Refusal - Other"/>
-        <filter val="Refusal - s.312(1)(d)(ii) Identifies individual with duty to report;Refusal - Part X does not apply;Refusal - Requestor's Information cannot reasonably be severed"/>
-        <filter val="Refusal - s.312(1)(d)(ii) Identifies individual with duty to report;Refusal - Part X does not apply;Refusal - Requestor's Information cannot reasonably be severed;Refusal - Other"/>
-        <filter val="Refusal - s.312(1)(d)(iii) Identifies information source who reported in confidence;Refusal - Part X does not apply;Refusal - Requestor's Information cannot reasonably be severed"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="225">
+    <mergeCell ref="Y251:Y252"/>
+    <mergeCell ref="Z251:Z252"/>
+    <mergeCell ref="AA251:AA252"/>
+    <mergeCell ref="AB251:AB252"/>
+    <mergeCell ref="AC251:AC252"/>
+    <mergeCell ref="AD251:AD252"/>
+    <mergeCell ref="AJ251:AJ252"/>
+    <mergeCell ref="AK251:AK252"/>
+    <mergeCell ref="AL251:AL252"/>
+    <mergeCell ref="AL110:AL111"/>
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="E251:E252"/>
+    <mergeCell ref="F251:F252"/>
+    <mergeCell ref="G251:G252"/>
+    <mergeCell ref="H251:H252"/>
+    <mergeCell ref="I251:I252"/>
+    <mergeCell ref="J251:J252"/>
+    <mergeCell ref="K251:K252"/>
+    <mergeCell ref="L251:L252"/>
+    <mergeCell ref="M251:M252"/>
+    <mergeCell ref="N251:N252"/>
+    <mergeCell ref="O251:O252"/>
+    <mergeCell ref="P251:P252"/>
+    <mergeCell ref="R251:R252"/>
+    <mergeCell ref="S251:S252"/>
+    <mergeCell ref="T251:T252"/>
+    <mergeCell ref="U251:U252"/>
+    <mergeCell ref="V251:V252"/>
+    <mergeCell ref="W251:W252"/>
+    <mergeCell ref="X251:X252"/>
+    <mergeCell ref="X110:X111"/>
+    <mergeCell ref="Y110:Y111"/>
+    <mergeCell ref="Z110:Z111"/>
+    <mergeCell ref="AA110:AA111"/>
+    <mergeCell ref="AB110:AB111"/>
+    <mergeCell ref="AC110:AC111"/>
+    <mergeCell ref="AD110:AD111"/>
+    <mergeCell ref="AJ110:AJ111"/>
+    <mergeCell ref="AK110:AK111"/>
+    <mergeCell ref="AK91:AK92"/>
+    <mergeCell ref="AL91:AL92"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="J110:J111"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="L110:L111"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="N110:N111"/>
+    <mergeCell ref="O110:O111"/>
+    <mergeCell ref="P110:P111"/>
+    <mergeCell ref="R110:R111"/>
+    <mergeCell ref="S110:S111"/>
+    <mergeCell ref="T110:T111"/>
+    <mergeCell ref="U110:U111"/>
+    <mergeCell ref="V110:V111"/>
+    <mergeCell ref="W110:W111"/>
+    <mergeCell ref="W91:W92"/>
+    <mergeCell ref="X91:X92"/>
+    <mergeCell ref="Y91:Y92"/>
+    <mergeCell ref="Z91:Z92"/>
+    <mergeCell ref="AA91:AA92"/>
+    <mergeCell ref="AB91:AB92"/>
+    <mergeCell ref="AC91:AC92"/>
+    <mergeCell ref="AD91:AD92"/>
+    <mergeCell ref="AJ91:AJ92"/>
+    <mergeCell ref="AJ85:AJ86"/>
+    <mergeCell ref="AK85:AK86"/>
+    <mergeCell ref="AL85:AL86"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="N91:N92"/>
+    <mergeCell ref="O91:O92"/>
+    <mergeCell ref="P91:P92"/>
+    <mergeCell ref="R91:R92"/>
+    <mergeCell ref="S91:S92"/>
+    <mergeCell ref="T91:T92"/>
+    <mergeCell ref="U91:U92"/>
+    <mergeCell ref="V91:V92"/>
+    <mergeCell ref="V85:V86"/>
+    <mergeCell ref="W85:W86"/>
+    <mergeCell ref="X85:X86"/>
+    <mergeCell ref="Y85:Y86"/>
+    <mergeCell ref="Z85:Z86"/>
+    <mergeCell ref="AA85:AA86"/>
+    <mergeCell ref="AB85:AB86"/>
+    <mergeCell ref="AC85:AC86"/>
+    <mergeCell ref="AD85:AD86"/>
+    <mergeCell ref="AD49:AD50"/>
+    <mergeCell ref="AJ49:AJ50"/>
+    <mergeCell ref="AK49:AK50"/>
+    <mergeCell ref="AL49:AL50"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="R85:R86"/>
+    <mergeCell ref="S85:S86"/>
+    <mergeCell ref="T85:T86"/>
+    <mergeCell ref="U85:U86"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="V49:V50"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="X49:X50"/>
+    <mergeCell ref="Y49:Y50"/>
+    <mergeCell ref="Z49:Z50"/>
+    <mergeCell ref="AA49:AA50"/>
+    <mergeCell ref="AB49:AB50"/>
+    <mergeCell ref="AC49:AC50"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="AJ35:AJ36"/>
+    <mergeCell ref="AK35:AK36"/>
+    <mergeCell ref="AL35:AL36"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="T49:T50"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="X35:X36"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Z35:Z36"/>
+    <mergeCell ref="AA35:AA36"/>
+    <mergeCell ref="AB35:AB36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="AC32:AC33"/>
+    <mergeCell ref="AD32:AD33"/>
+    <mergeCell ref="AJ32:AJ33"/>
+    <mergeCell ref="AK32:AK33"/>
+    <mergeCell ref="AL32:AL33"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
@@ -43848,207 +44048,6 @@
     <mergeCell ref="V32:V33"/>
     <mergeCell ref="W32:W33"/>
     <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="AC32:AC33"/>
-    <mergeCell ref="AD32:AD33"/>
-    <mergeCell ref="AJ32:AJ33"/>
-    <mergeCell ref="AK32:AK33"/>
-    <mergeCell ref="AL32:AL33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="X35:X36"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Z35:Z36"/>
-    <mergeCell ref="AA35:AA36"/>
-    <mergeCell ref="AB35:AB36"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="AJ35:AJ36"/>
-    <mergeCell ref="AK35:AK36"/>
-    <mergeCell ref="AL35:AL36"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="T49:T50"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="V49:V50"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="X49:X50"/>
-    <mergeCell ref="Y49:Y50"/>
-    <mergeCell ref="Z49:Z50"/>
-    <mergeCell ref="AA49:AA50"/>
-    <mergeCell ref="AB49:AB50"/>
-    <mergeCell ref="AC49:AC50"/>
-    <mergeCell ref="AD49:AD50"/>
-    <mergeCell ref="AJ49:AJ50"/>
-    <mergeCell ref="AK49:AK50"/>
-    <mergeCell ref="AL49:AL50"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="R85:R86"/>
-    <mergeCell ref="S85:S86"/>
-    <mergeCell ref="T85:T86"/>
-    <mergeCell ref="U85:U86"/>
-    <mergeCell ref="V85:V86"/>
-    <mergeCell ref="W85:W86"/>
-    <mergeCell ref="X85:X86"/>
-    <mergeCell ref="Y85:Y86"/>
-    <mergeCell ref="Z85:Z86"/>
-    <mergeCell ref="AA85:AA86"/>
-    <mergeCell ref="AB85:AB86"/>
-    <mergeCell ref="AC85:AC86"/>
-    <mergeCell ref="AD85:AD86"/>
-    <mergeCell ref="AJ85:AJ86"/>
-    <mergeCell ref="AK85:AK86"/>
-    <mergeCell ref="AL85:AL86"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="N91:N92"/>
-    <mergeCell ref="O91:O92"/>
-    <mergeCell ref="P91:P92"/>
-    <mergeCell ref="R91:R92"/>
-    <mergeCell ref="S91:S92"/>
-    <mergeCell ref="T91:T92"/>
-    <mergeCell ref="U91:U92"/>
-    <mergeCell ref="V91:V92"/>
-    <mergeCell ref="W91:W92"/>
-    <mergeCell ref="X91:X92"/>
-    <mergeCell ref="Y91:Y92"/>
-    <mergeCell ref="Z91:Z92"/>
-    <mergeCell ref="AA91:AA92"/>
-    <mergeCell ref="AB91:AB92"/>
-    <mergeCell ref="AC91:AC92"/>
-    <mergeCell ref="AD91:AD92"/>
-    <mergeCell ref="AJ91:AJ92"/>
-    <mergeCell ref="AK91:AK92"/>
-    <mergeCell ref="AL91:AL92"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="I110:I111"/>
-    <mergeCell ref="J110:J111"/>
-    <mergeCell ref="K110:K111"/>
-    <mergeCell ref="L110:L111"/>
-    <mergeCell ref="M110:M111"/>
-    <mergeCell ref="N110:N111"/>
-    <mergeCell ref="O110:O111"/>
-    <mergeCell ref="P110:P111"/>
-    <mergeCell ref="R110:R111"/>
-    <mergeCell ref="S110:S111"/>
-    <mergeCell ref="T110:T111"/>
-    <mergeCell ref="U110:U111"/>
-    <mergeCell ref="V110:V111"/>
-    <mergeCell ref="W110:W111"/>
-    <mergeCell ref="X110:X111"/>
-    <mergeCell ref="Y110:Y111"/>
-    <mergeCell ref="Z110:Z111"/>
-    <mergeCell ref="AA110:AA111"/>
-    <mergeCell ref="AB110:AB111"/>
-    <mergeCell ref="AC110:AC111"/>
-    <mergeCell ref="AD110:AD111"/>
-    <mergeCell ref="AJ110:AJ111"/>
-    <mergeCell ref="AK110:AK111"/>
-    <mergeCell ref="AL110:AL111"/>
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="E251:E252"/>
-    <mergeCell ref="F251:F252"/>
-    <mergeCell ref="G251:G252"/>
-    <mergeCell ref="H251:H252"/>
-    <mergeCell ref="I251:I252"/>
-    <mergeCell ref="J251:J252"/>
-    <mergeCell ref="K251:K252"/>
-    <mergeCell ref="L251:L252"/>
-    <mergeCell ref="M251:M252"/>
-    <mergeCell ref="N251:N252"/>
-    <mergeCell ref="O251:O252"/>
-    <mergeCell ref="P251:P252"/>
-    <mergeCell ref="R251:R252"/>
-    <mergeCell ref="S251:S252"/>
-    <mergeCell ref="T251:T252"/>
-    <mergeCell ref="U251:U252"/>
-    <mergeCell ref="V251:V252"/>
-    <mergeCell ref="W251:W252"/>
-    <mergeCell ref="X251:X252"/>
-    <mergeCell ref="Y251:Y252"/>
-    <mergeCell ref="Z251:Z252"/>
-    <mergeCell ref="AA251:AA252"/>
-    <mergeCell ref="AB251:AB252"/>
-    <mergeCell ref="AC251:AC252"/>
-    <mergeCell ref="AD251:AD252"/>
-    <mergeCell ref="AJ251:AJ252"/>
-    <mergeCell ref="AK251:AK252"/>
-    <mergeCell ref="AL251:AL252"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44058,15 +44057,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="88.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
@@ -44147,16 +44146,16 @@
       <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="42" t="s">
         <v>1809</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6" s="9" t="s">
@@ -44249,16 +44248,16 @@
       <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="42" t="s">
         <v>1815</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1">
       <c r="A12" s="9" t="s">
@@ -44331,16 +44330,16 @@
       <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="42" t="s">
         <v>1818</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="9" t="s">
@@ -44413,16 +44412,16 @@
       <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="42" t="s">
         <v>1822</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="9" t="s">
@@ -44452,13 +44451,13 @@
       <c r="A23" s="9" t="s">
         <v>1824</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="21">
         <v>114</v>
       </c>
       <c r="C23" s="19">
         <v>0</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="21">
         <v>75</v>
       </c>
       <c r="E23" s="19">
@@ -44500,17 +44499,17 @@
       <c r="A25" s="9" t="s">
         <v>1826</v>
       </c>
-      <c r="B25" s="42">
+      <c r="B25" s="23">
         <v>13</v>
       </c>
       <c r="C25" s="19">
-        <v>0</v>
-      </c>
-      <c r="D25" s="42">
+        <v>13</v>
+      </c>
+      <c r="D25" s="23">
         <v>8</v>
       </c>
       <c r="E25" s="19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>1812</v>
@@ -44524,13 +44523,13 @@
       <c r="A26" s="9" t="s">
         <v>1827</v>
       </c>
-      <c r="B26" s="42">
+      <c r="B26" s="21">
         <v>12</v>
       </c>
       <c r="C26" s="19">
         <v>4</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="21">
         <v>8</v>
       </c>
       <c r="E26" s="19">
@@ -44548,13 +44547,13 @@
       <c r="A27" s="9" t="s">
         <v>1828</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="23">
         <v>114</v>
       </c>
       <c r="C27" s="19">
         <v>114</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="23">
         <v>75</v>
       </c>
       <c r="E27" s="19">
@@ -44620,17 +44619,17 @@
       <c r="A30" s="9" t="s">
         <v>1831</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="23">
         <v>9</v>
       </c>
       <c r="C30" s="19">
-        <v>0</v>
-      </c>
-      <c r="D30" s="42">
+        <v>9</v>
+      </c>
+      <c r="D30" s="23">
         <v>6</v>
       </c>
       <c r="E30" s="19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>1812</v>
@@ -44644,13 +44643,13 @@
       <c r="A31" s="9" t="s">
         <v>1832</v>
       </c>
-      <c r="B31" s="42">
+      <c r="B31" s="21">
         <v>5</v>
       </c>
       <c r="C31" s="19">
         <v>4</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="21">
         <v>4</v>
       </c>
       <c r="E31" s="19">
@@ -44713,7 +44712,7 @@
       <c r="H33" s="17">
         <v>62</v>
       </c>
-      <c r="I33" s="43">
+      <c r="I33" s="22">
         <v>62</v>
       </c>
     </row>
@@ -44742,7 +44741,7 @@
       <c r="H34" s="17">
         <v>46</v>
       </c>
-      <c r="I34" s="43">
+      <c r="I34" s="22">
         <v>46</v>
       </c>
     </row>
@@ -44777,14 +44776,16 @@
       <c r="B36" s="17">
         <v>506</v>
       </c>
-      <c r="C36" s="17">
-        <v>506</v>
+      <c r="C36" s="19">
+        <f>SUM(C22:C35)</f>
+        <v>383</v>
       </c>
       <c r="D36" s="17">
         <v>343</v>
       </c>
-      <c r="E36" s="17">
-        <v>343</v>
+      <c r="E36" s="19">
+        <f>SUM(E22:E35)</f>
+        <v>261</v>
       </c>
       <c r="F36" s="17">
         <v>174</v>
@@ -44795,7 +44796,7 @@
       <c r="H36" s="17">
         <v>108</v>
       </c>
-      <c r="I36" s="43">
+      <c r="I36" s="22">
         <v>108</v>
       </c>
     </row>
@@ -44803,17 +44804,17 @@
       <c r="A37" s="9" t="s">
         <v>1838</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="21">
         <v>114</v>
       </c>
-      <c r="C37" s="17">
-        <v>114</v>
-      </c>
-      <c r="D37" s="17">
+      <c r="C37" s="19">
+        <v>0</v>
+      </c>
+      <c r="D37" s="21">
         <v>75</v>
       </c>
-      <c r="E37" s="17">
-        <v>75</v>
+      <c r="E37" s="19">
+        <v>0</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>1812</v>
@@ -44834,16 +44835,16 @@
       <c r="H38" s="41"/>
     </row>
     <row r="39" spans="1:9" ht="13.2">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="42" t="s">
         <v>1839</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="38"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:9" ht="13.2">
       <c r="A40" s="9" t="s">
@@ -45016,16 +45017,16 @@
       <c r="H48" s="41"/>
     </row>
     <row r="49" spans="1:8" ht="13.2">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="42" t="s">
         <v>1848</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="38"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="44"/>
     </row>
     <row r="50" spans="1:8" ht="13.2">
       <c r="A50" s="9" t="s">
@@ -45095,11 +45096,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="A48:H48"/>
     <mergeCell ref="A49:H49"/>
@@ -45108,6 +45104,11 @@
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
